--- a/doc/协议说明.xlsx
+++ b/doc/协议说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\Android\L58Tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="0" windowWidth="20880" windowHeight="8595"/>
+    <workbookView xWindow="4005" yWindow="0" windowWidth="20880" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <definedName name="数据同步开始">Sheet1!$B$204</definedName>
     <definedName name="睡眠数据返回">Sheet1!$B$183</definedName>
     <definedName name="通知提醒">Sheet1!$B$151</definedName>
+    <definedName name="协议格式概览">Sheet1!$E$2</definedName>
     <definedName name="用户信息设置">Sheet1!$B$109</definedName>
     <definedName name="运动数据返回">Sheet1!$B$171</definedName>
     <definedName name="左右手设置">Sheet1!$B$130</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="320">
   <si>
     <t>L1Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1465,6 +1466,38 @@
   </si>
   <si>
     <t>12/24小时制设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1800,7 +1833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1888,6 +1921,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,7 +1969,115 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,12 +2086,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1927,145 +2101,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3451,10 +3487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA223"/>
+  <dimension ref="B2:AA236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3465,16 +3501,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -3524,37 +3560,37 @@
       <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="31"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="29"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -3563,18 +3599,18 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3582,10 +3618,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -3610,15 +3646,15 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="H9" s="44" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="30"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
@@ -3632,10 +3668,10 @@
       <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
@@ -3654,18 +3690,18 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="N12" s="43"/>
+      <c r="N12" s="81"/>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3687,10 +3723,10 @@
       <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3712,10 +3748,10 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="N14" s="81"/>
       <c r="O14" s="7" t="s">
         <v>60</v>
       </c>
@@ -3725,10 +3761,10 @@
       <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="N15" s="43"/>
+      <c r="N15" s="81"/>
       <c r="O15" s="7" t="s">
         <v>57</v>
       </c>
@@ -3738,10 +3774,10 @@
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="N16" s="43"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
@@ -3751,10 +3787,10 @@
       <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
@@ -3766,10 +3802,10 @@
       <c r="L18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="N18" s="81"/>
       <c r="O18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3785,10 +3821,10 @@
       <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="43"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3804,10 +3840,10 @@
       <c r="L20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="N20" s="81"/>
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3835,10 +3871,10 @@
       <c r="L22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="41"/>
+      <c r="N22" s="88"/>
       <c r="O22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3872,26 +3908,26 @@
       <c r="L23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="41"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="P24" s="11"/>
@@ -3903,25 +3939,25 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30" t="s">
+      <c r="E25" s="44"/>
+      <c r="F25" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="44"/>
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="33" t="s">
+      <c r="M25" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="83"/>
       <c r="O25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3934,10 +3970,10 @@
       <c r="L26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="34"/>
+      <c r="N26" s="83"/>
       <c r="O26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3947,31 +3983,31 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="N27" s="34"/>
+      <c r="N27" s="83"/>
       <c r="O27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D28" s="30">
+      <c r="D28" s="43">
         <v>0</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="H28" s="30" t="s">
+      <c r="E28" s="44"/>
+      <c r="H28" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="44"/>
       <c r="L28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="34"/>
+      <c r="N28" s="83"/>
       <c r="O28" s="17" t="s">
         <v>57</v>
       </c>
@@ -3981,10 +4017,10 @@
       <c r="L29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="34"/>
+      <c r="N29" s="83"/>
       <c r="O29" s="17" t="s">
         <v>58</v>
       </c>
@@ -4000,10 +4036,10 @@
       <c r="L30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="N30" s="34"/>
+      <c r="N30" s="83"/>
       <c r="O30" s="17" t="s">
         <v>58</v>
       </c>
@@ -4022,17 +4058,17 @@
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="43">
         <v>0</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="44"/>
       <c r="L31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="33" t="s">
+      <c r="M31" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="34"/>
+      <c r="N31" s="83"/>
       <c r="O31" s="17" t="s">
         <v>57</v>
       </c>
@@ -4054,16 +4090,16 @@
       <c r="L32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="34"/>
+      <c r="N32" s="83"/>
       <c r="O32" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -4077,62 +4113,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="I34" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F37" s="35" t="s">
+      <c r="P34" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F37" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+    </row>
+    <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="19"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="52" t="s">
+    <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -4148,7 +4187,7 @@
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>69</v>
       </c>
@@ -4159,7 +4198,7 @@
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B43" s="20">
         <v>1.1000000000000001</v>
       </c>
@@ -4167,7 +4206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
@@ -4175,7 +4214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>72</v>
       </c>
@@ -4186,7 +4225,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B47" s="20">
         <v>1.2</v>
       </c>
@@ -4194,7 +4233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>71</v>
       </c>
@@ -4236,32 +4275,32 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
@@ -4336,7 +4375,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
@@ -4349,8 +4388,11 @@
       <c r="K65" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="P65" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
@@ -4358,7 +4400,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
         <v>98</v>
       </c>
@@ -4366,29 +4408,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="D70" s="35" t="s">
+      <c r="P68" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D70" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -4396,15 +4441,15 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="86" t="s">
+      <c r="J71" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="K71" s="86"/>
-      <c r="L71" s="86"/>
-      <c r="M71" s="86"/>
-      <c r="N71" s="86"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>40</v>
       </c>
@@ -4413,29 +4458,29 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="46" t="s">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B73" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="46"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="39"/>
+      <c r="G73" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="49"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="60"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>10</v>
       </c>
@@ -4443,12 +4488,12 @@
         <v>11</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="30" t="s">
+      <c r="E74" s="43"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="31"/>
+      <c r="H74" s="44"/>
       <c r="I74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4465,7 +4510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="25" t="s">
         <v>115</v>
       </c>
@@ -4475,14 +4520,14 @@
       <c r="D75" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="50" t="s">
+      <c r="E75" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="F75" s="51"/>
-      <c r="G75" s="30" t="s">
+      <c r="F75" s="46"/>
+      <c r="G75" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="31"/>
+      <c r="H75" s="44"/>
       <c r="I75" s="3" t="s">
         <v>123</v>
       </c>
@@ -4499,61 +4544,61 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="57"/>
-      <c r="I76" s="53" t="s">
+      <c r="H76" s="71"/>
+      <c r="I76" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="53" t="s">
+      <c r="J76" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="L76" s="53" t="s">
+      <c r="L76" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="M76" s="53" t="s">
+      <c r="M76" s="61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="G77" s="72"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="55"/>
-    </row>
-    <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G78" s="74"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+    </row>
+    <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -4565,7 +4610,7 @@
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
         <v>292</v>
       </c>
@@ -4580,26 +4625,26 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="46"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="32"/>
-      <c r="G81" s="47" t="s">
+      <c r="F81" s="39"/>
+      <c r="G81" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="49"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="60"/>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
@@ -4609,20 +4654,20 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="44" t="s">
+      <c r="E82" s="43"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44" t="s">
+      <c r="H82" s="30"/>
+      <c r="I82" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44" t="s">
+      <c r="J82" s="30"/>
+      <c r="K82" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="L82" s="44"/>
+      <c r="L82" s="30"/>
       <c r="M82" s="8" t="s">
         <v>152</v>
       </c>
@@ -4637,22 +4682,22 @@
       <c r="D83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="44" t="s">
+      <c r="F83" s="44"/>
+      <c r="G83" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44" t="s">
+      <c r="H83" s="30"/>
+      <c r="I83" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44" t="s">
+      <c r="J83" s="30"/>
+      <c r="K83" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="L83" s="44"/>
+      <c r="L83" s="30"/>
       <c r="M83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4687,17 +4732,17 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="44" t="s">
+      <c r="G85" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -4715,10 +4760,10 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="31"/>
+      <c r="H86" s="44"/>
       <c r="I86" s="3" t="s">
         <v>15</v>
       </c>
@@ -4754,10 +4799,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="30" t="s">
+      <c r="G87" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="31"/>
+      <c r="H87" s="44"/>
       <c r="I87" s="3" t="s">
         <v>123</v>
       </c>
@@ -4793,27 +4838,27 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="56" t="s">
+      <c r="G88" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="57"/>
-      <c r="I88" s="53" t="s">
+      <c r="H88" s="71"/>
+      <c r="I88" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="53" t="s">
+      <c r="J88" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="53" t="s">
+      <c r="K88" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="L88" s="53" t="s">
+      <c r="L88" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="53" t="s">
+      <c r="M88" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="N88" s="44"/>
-      <c r="O88" s="62" t="s">
+      <c r="N88" s="30"/>
+      <c r="O88" s="69" t="s">
         <v>188</v>
       </c>
       <c r="R88"/>
@@ -4830,15 +4875,15 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="62"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="76"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="69"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -4853,15 +4898,15 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="62"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="69"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E91"/>
@@ -4891,17 +4936,17 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="46"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="32" t="s">
+      <c r="E93" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="32"/>
+      <c r="F93" s="39"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4919,8 +4964,8 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="31"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="44"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4940,10 +4985,10 @@
       <c r="D95" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="F95" s="51"/>
+      <c r="F95" s="46"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -4953,25 +4998,28 @@
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B98" s="46" t="s">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B98" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="46"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="32"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F98" s="39"/>
+      <c r="P98" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
         <v>10</v>
       </c>
@@ -4979,10 +5027,10 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E99" s="43"/>
+      <c r="F99" s="44"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B100" s="25" t="s">
         <v>115</v>
       </c>
@@ -4992,42 +5040,47 @@
       <c r="D100" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="F100" s="31"/>
+      <c r="F100" s="44"/>
       <c r="H100" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="P101" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B104" s="46" t="s">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B104" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="46"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="32"/>
-      <c r="G104" s="29" t="s">
+      <c r="F104" s="39"/>
+      <c r="G104" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B105" s="3" t="s">
         <v>10</v>
       </c>
@@ -5035,19 +5088,19 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="80" t="s">
+      <c r="E105" s="43"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="81"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="33"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B106" s="25" t="s">
         <v>115</v>
       </c>
@@ -5057,50 +5110,50 @@
       <c r="D106" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="F106" s="51"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="85"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="36"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.15">
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B110" s="46" t="s">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B110" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="46"/>
+      <c r="C110" s="38"/>
       <c r="D110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="32"/>
-      <c r="G110" s="29" t="s">
+      <c r="F110" s="39"/>
+      <c r="G110" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
@@ -5108,8 +5161,8 @@
         <v>11</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="65"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="48"/>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
@@ -5126,7 +5179,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B112" s="25" t="s">
         <v>115</v>
       </c>
@@ -5136,10 +5189,10 @@
       <c r="D112" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F112" s="67"/>
+      <c r="F112" s="68"/>
       <c r="G112" s="3" t="s">
         <v>159</v>
       </c>
@@ -5157,26 +5210,26 @@
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G113" s="63" t="s">
+      <c r="G113" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="H113" s="63" t="s">
+      <c r="H113" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I113" s="44" t="s">
+      <c r="I113" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="J113" s="44" t="s">
+      <c r="J113" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="K113" s="44"/>
+      <c r="K113" s="30"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="44"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
@@ -5184,21 +5237,21 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="46"/>
+      <c r="C117" s="38"/>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="32" t="s">
+      <c r="E117" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="32"/>
-      <c r="G117" s="29" t="s">
+      <c r="F117" s="39"/>
+      <c r="G117" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="H117" s="29"/>
+      <c r="H117" s="42"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -5211,10 +5264,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="44"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="25" t="s">
@@ -5226,24 +5279,24 @@
       <c r="D119" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E119" s="50" t="s">
+      <c r="E119" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="F119" s="51"/>
-      <c r="G119" s="44" t="s">
+      <c r="F119" s="46"/>
+      <c r="G119" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H119" s="44"/>
+      <c r="H119" s="30"/>
     </row>
     <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="66" t="s">
+      <c r="G120" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="H120" s="66"/>
+      <c r="H120" s="47"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
@@ -5251,26 +5304,26 @@
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="46"/>
+      <c r="C124" s="38"/>
       <c r="D124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="32" t="s">
+      <c r="E124" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="32"/>
-      <c r="G124" s="29" t="s">
+      <c r="F124" s="39"/>
+      <c r="G124" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
@@ -5280,8 +5333,8 @@
         <v>11</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="65"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="48"/>
       <c r="G125" s="3" t="s">
         <v>169</v>
       </c>
@@ -5314,10 +5367,10 @@
       <c r="D126" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="E126" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F126" s="67"/>
+      <c r="F126" s="68"/>
       <c r="G126" s="3" t="s">
         <v>177</v>
       </c>
@@ -5341,58 +5394,58 @@
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G127" s="63"/>
-      <c r="H127" s="63" t="s">
+      <c r="G127" s="50"/>
+      <c r="H127" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="I127" s="44" t="s">
+      <c r="I127" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="J127" s="44" t="s">
+      <c r="J127" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="K127" s="66" t="s">
+      <c r="K127" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="L127" s="66" t="s">
+      <c r="L127" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="M127" s="68" t="s">
+      <c r="M127" s="66" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="44"/>
-      <c r="K128" s="44"/>
-      <c r="L128" s="44"/>
-      <c r="M128" s="69"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="67"/>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B131" s="46" t="s">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B131" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="46"/>
+      <c r="C131" s="38"/>
       <c r="D131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="32" t="s">
+      <c r="E131" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="29" t="s">
+      <c r="F131" s="39"/>
+      <c r="G131" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="H131" s="29"/>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H131" s="42"/>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
         <v>10</v>
       </c>
@@ -5400,12 +5453,15 @@
         <v>11</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="31"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="44"/>
+      <c r="P132" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B133" s="25" t="s">
         <v>115</v>
       </c>
@@ -5415,48 +5471,51 @@
       <c r="D133" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E133" s="50" t="s">
+      <c r="E133" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="F133" s="51"/>
-      <c r="G133" s="44" t="s">
+      <c r="F133" s="46"/>
+      <c r="G133" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H133" s="44"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G134" s="66" t="s">
+      <c r="H133" s="30"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G134" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="H134" s="66"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G135" s="66"/>
-      <c r="H135" s="66"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H134" s="47"/>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="P135" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B138" s="46" t="s">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B138" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="46"/>
+      <c r="C138" s="38"/>
       <c r="D138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="32" t="s">
+      <c r="E138" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="32"/>
-      <c r="G138" s="29" t="s">
+      <c r="F138" s="39"/>
+      <c r="G138" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="H138" s="29"/>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H138" s="42"/>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B139" s="3" t="s">
         <v>10</v>
       </c>
@@ -5464,12 +5523,12 @@
         <v>11</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="31"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="44"/>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B140" s="25" t="s">
         <v>115</v>
       </c>
@@ -5479,49 +5538,49 @@
       <c r="D140" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E140" s="50" t="s">
+      <c r="E140" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="F140" s="51"/>
-      <c r="G140" s="44" t="s">
+      <c r="F140" s="46"/>
+      <c r="G140" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="H140" s="44"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G141" s="66" t="s">
+      <c r="H140" s="30"/>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G141" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="H141" s="66"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H141" s="47"/>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="46"/>
+      <c r="C145" s="38"/>
       <c r="D145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="32" t="s">
+      <c r="E145" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="32"/>
-      <c r="G145" s="29" t="s">
+      <c r="F145" s="39"/>
+      <c r="G145" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+      <c r="K145" s="42"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
@@ -5531,17 +5590,17 @@
         <v>11</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
       <c r="G146" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H146" s="44" t="s">
+      <c r="H146" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="I146" s="44"/>
-      <c r="J146" s="44"/>
-      <c r="K146" s="44"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B147" s="25" t="s">
@@ -5553,35 +5612,35 @@
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="72" t="s">
+      <c r="E147" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="F147" s="44"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44"/>
-      <c r="J147" s="44"/>
-      <c r="K147" s="44"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G148" s="70" t="s">
+      <c r="G148" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="H148" s="70" t="s">
+      <c r="H148" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I148" s="71"/>
-      <c r="J148" s="71"/>
-      <c r="K148" s="71"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="65"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="71"/>
-      <c r="J149" s="71"/>
-      <c r="K149" s="71"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="65"/>
+      <c r="J149" s="65"/>
+      <c r="K149" s="65"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
@@ -5589,24 +5648,24 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="46" t="s">
+      <c r="B152" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="46"/>
+      <c r="C152" s="38"/>
       <c r="D152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="32" t="s">
+      <c r="E152" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="32"/>
-      <c r="G152" s="29" t="s">
+      <c r="F152" s="39"/>
+      <c r="G152" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+      <c r="K152" s="42"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B153" s="3" t="s">
@@ -5616,17 +5675,17 @@
         <v>11</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
       <c r="G153" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H153" s="44" t="s">
+      <c r="H153" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="44"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B154" s="25" t="s">
@@ -5638,35 +5697,35 @@
       <c r="D154" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="72" t="s">
+      <c r="E154" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="F154" s="44"/>
+      <c r="F154" s="30"/>
       <c r="G154" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
-      <c r="K154" s="44"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
+      <c r="K154" s="30"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G155" s="70" t="s">
+      <c r="G155" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="H155" s="70" t="s">
+      <c r="H155" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="I155" s="71"/>
-      <c r="J155" s="71"/>
-      <c r="K155" s="71"/>
+      <c r="I155" s="65"/>
+      <c r="J155" s="65"/>
+      <c r="K155" s="65"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G156" s="71"/>
-      <c r="H156" s="71"/>
-      <c r="I156" s="71"/>
-      <c r="J156" s="71"/>
-      <c r="K156" s="71"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="65"/>
+      <c r="I156" s="65"/>
+      <c r="J156" s="65"/>
+      <c r="K156" s="65"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
@@ -5674,17 +5733,17 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="46"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="32" t="s">
+      <c r="E159" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="32"/>
+      <c r="F159" s="39"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B160" s="3" t="s">
@@ -5694,10 +5753,10 @@
         <v>11</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="31"/>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E160" s="43"/>
+      <c r="F160" s="44"/>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="25" t="s">
         <v>149</v>
       </c>
@@ -5707,12 +5766,12 @@
       <c r="D161" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="50" t="s">
+      <c r="E161" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="F161" s="51"/>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F161" s="46"/>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
@@ -5726,7 +5785,7 @@
       <c r="L163"/>
       <c r="M163"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
@@ -5740,7 +5799,7 @@
       <c r="L164"/>
       <c r="M164"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
@@ -5754,7 +5813,7 @@
       <c r="L165"/>
       <c r="M165"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
@@ -5767,8 +5826,11 @@
       <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="P166" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
@@ -5782,7 +5844,7 @@
       <c r="L167"/>
       <c r="M167"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
@@ -5796,7 +5858,7 @@
       <c r="L168"/>
       <c r="M168"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
@@ -5809,8 +5871,11 @@
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="P169" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
@@ -5824,34 +5889,34 @@
       <c r="L170"/>
       <c r="M170"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B171" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B172" s="73" t="s">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B172" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="74"/>
+      <c r="C172" s="55"/>
       <c r="D172" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="75" t="s">
+      <c r="E172" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="76"/>
-      <c r="G172" s="47" t="s">
+      <c r="F172" s="57"/>
+      <c r="G172" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="H172" s="48"/>
-      <c r="I172" s="48"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="48"/>
-      <c r="L172" s="48"/>
-      <c r="M172" s="49"/>
-    </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="60"/>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B173" s="3" t="s">
         <v>10</v>
       </c>
@@ -5859,25 +5924,25 @@
         <v>11</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="30" t="s">
+      <c r="E173" s="43"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="H173" s="31"/>
-      <c r="I173" s="30" t="s">
+      <c r="H173" s="44"/>
+      <c r="I173" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="J173" s="31"/>
-      <c r="K173" s="30" t="s">
+      <c r="J173" s="44"/>
+      <c r="K173" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="L173" s="31"/>
+      <c r="L173" s="44"/>
       <c r="M173" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="25" t="s">
         <v>28</v>
       </c>
@@ -5887,43 +5952,43 @@
       <c r="D174" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F174" s="31"/>
-      <c r="G174" s="30" t="s">
+      <c r="F174" s="44"/>
+      <c r="G174" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="H174" s="31"/>
-      <c r="I174" s="30" t="s">
+      <c r="H174" s="44"/>
+      <c r="I174" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="J174" s="31"/>
-      <c r="K174" s="30" t="s">
+      <c r="J174" s="44"/>
+      <c r="K174" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="L174" s="31"/>
+      <c r="L174" s="44"/>
       <c r="M174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C178" s="65"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="65"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="31"/>
-      <c r="I178" s="44" t="s">
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="44"/>
+      <c r="I178" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J178" s="44"/>
-      <c r="K178" s="44"/>
-      <c r="L178" s="44"/>
-      <c r="M178" s="44"/>
-      <c r="N178" s="44"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="30"/>
+      <c r="M178" s="30"/>
+      <c r="N178" s="30"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
@@ -5957,10 +6022,10 @@
         <v>15</v>
       </c>
       <c r="M179" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N179" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="N179" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.15">
@@ -5982,23 +6047,23 @@
       <c r="G180" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I180" s="53" t="s">
+      <c r="I180" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="J180" s="77" t="s">
+      <c r="J180" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="K180" s="77" t="s">
+      <c r="K180" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="L180" s="77" t="s">
+      <c r="L180" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="M180" s="77" t="s">
+      <c r="M180" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="N180" s="52" t="s">
         <v>233</v>
-      </c>
-      <c r="N180" s="77" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.15">
@@ -6016,12 +6081,12 @@
       <c r="G181" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I181" s="55"/>
-      <c r="J181" s="78"/>
-      <c r="K181" s="78"/>
-      <c r="L181" s="78"/>
-      <c r="M181" s="78"/>
-      <c r="N181" s="78"/>
+      <c r="I181" s="62"/>
+      <c r="J181" s="53"/>
+      <c r="K181" s="53"/>
+      <c r="L181" s="53"/>
+      <c r="M181" s="53"/>
+      <c r="N181" s="53"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
@@ -6029,26 +6094,26 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B184" s="73" t="s">
+      <c r="B184" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="74"/>
+      <c r="C184" s="55"/>
       <c r="D184" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="75" t="s">
+      <c r="E184" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="76"/>
-      <c r="G184" s="47" t="s">
+      <c r="F184" s="57"/>
+      <c r="G184" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="H184" s="48"/>
-      <c r="I184" s="48"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="48"/>
-      <c r="L184" s="48"/>
-      <c r="M184" s="49"/>
+      <c r="H184" s="59"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
+      <c r="L184" s="59"/>
+      <c r="M184" s="60"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
@@ -6058,20 +6123,20 @@
         <v>11</v>
       </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="30"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="30" t="s">
+      <c r="E185" s="43"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="H185" s="31"/>
-      <c r="I185" s="30" t="s">
+      <c r="H185" s="44"/>
+      <c r="I185" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="J185" s="31"/>
-      <c r="K185" s="30" t="s">
+      <c r="J185" s="44"/>
+      <c r="K185" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="L185" s="31"/>
+      <c r="L185" s="44"/>
       <c r="M185" s="8" t="s">
         <v>214</v>
       </c>
@@ -6086,42 +6151,42 @@
       <c r="D186" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="E186" s="30" t="s">
+      <c r="E186" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F186" s="31"/>
-      <c r="G186" s="30" t="s">
+      <c r="F186" s="44"/>
+      <c r="G186" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="H186" s="31"/>
-      <c r="I186" s="30" t="s">
+      <c r="H186" s="44"/>
+      <c r="I186" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="J186" s="31"/>
-      <c r="K186" s="30" t="s">
+      <c r="J186" s="44"/>
+      <c r="K186" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="L186" s="31"/>
+      <c r="L186" s="44"/>
       <c r="M186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C190" s="65"/>
-      <c r="D190" s="65"/>
-      <c r="E190" s="65"/>
-      <c r="F190" s="65"/>
-      <c r="G190" s="31"/>
-      <c r="I190" s="30" t="s">
+      <c r="C190" s="48"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="44"/>
+      <c r="I190" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="J190" s="65"/>
-      <c r="K190" s="65"/>
-      <c r="L190" s="65"/>
-      <c r="M190" s="31"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="48"/>
+      <c r="L190" s="48"/>
+      <c r="M190" s="44"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
@@ -6137,21 +6202,21 @@
       <c r="E191" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F191" s="30" t="s">
+      <c r="F191" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="G191" s="31"/>
-      <c r="I191" s="30" t="s">
+      <c r="G191" s="44"/>
+      <c r="I191" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="J191" s="31"/>
+      <c r="J191" s="44"/>
       <c r="K191" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L191" s="30" t="s">
+      <c r="L191" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="M191" s="31"/>
+      <c r="M191" s="44"/>
       <c r="N191"/>
     </row>
     <row r="192" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6167,25 +6232,25 @@
       <c r="E192" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F192" s="30" t="s">
+      <c r="F192" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="G192" s="31"/>
-      <c r="I192" s="79" t="s">
+      <c r="G192" s="44"/>
+      <c r="I192" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="J192" s="79"/>
+      <c r="J192" s="49"/>
       <c r="K192" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="L192" s="80" t="s">
+      <c r="L192" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="M192" s="81"/>
+      <c r="M192" s="33"/>
       <c r="N192"/>
       <c r="O192"/>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
         <v>220</v>
@@ -6196,23 +6261,23 @@
       <c r="E193" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F193" s="30" t="s">
+      <c r="F193" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="G193" s="31"/>
-      <c r="I193" s="66" t="s">
+      <c r="G193" s="44"/>
+      <c r="I193" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="J193" s="66"/>
-      <c r="K193" s="44"/>
-      <c r="L193" s="63" t="s">
+      <c r="J193" s="47"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="M193" s="64"/>
+      <c r="M193" s="51"/>
       <c r="N193"/>
       <c r="O193"/>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
@@ -6220,15 +6285,15 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
-      <c r="I194" s="66"/>
-      <c r="J194" s="66"/>
-      <c r="K194" s="44"/>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
+      <c r="I194" s="47"/>
+      <c r="J194" s="47"/>
+      <c r="K194" s="30"/>
+      <c r="L194" s="51"/>
+      <c r="M194" s="51"/>
       <c r="N194"/>
       <c r="O194"/>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
@@ -6244,7 +6309,7 @@
       <c r="N195"/>
       <c r="O195"/>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B196" s="2" t="s">
         <v>299</v>
       </c>
@@ -6256,22 +6321,22 @@
       <c r="N196"/>
       <c r="O196"/>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B197" s="46" t="s">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B197" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="46"/>
+      <c r="C197" s="38"/>
       <c r="D197" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="32" t="s">
+      <c r="E197" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F197" s="32"/>
-      <c r="G197" s="29" t="s">
+      <c r="F197" s="39"/>
+      <c r="G197" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="H197" s="29"/>
+      <c r="H197" s="42"/>
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
@@ -6280,7 +6345,7 @@
       <c r="N197"/>
       <c r="O197"/>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B198" s="3" t="s">
         <v>10</v>
       </c>
@@ -6288,10 +6353,10 @@
         <v>11</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="31"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="44"/>
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
@@ -6300,7 +6365,7 @@
       <c r="N198"/>
       <c r="O198"/>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B199" s="25" t="s">
         <v>248</v>
       </c>
@@ -6310,14 +6375,14 @@
       <c r="D199" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E199" s="50" t="s">
+      <c r="E199" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="F199" s="51"/>
-      <c r="G199" s="44" t="s">
+      <c r="F199" s="46"/>
+      <c r="G199" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="H199" s="44"/>
+      <c r="H199" s="30"/>
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
@@ -6325,12 +6390,15 @@
       <c r="M199"/>
       <c r="N199"/>
       <c r="O199"/>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="G200" s="66" t="s">
+      <c r="P199" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G200" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="H200" s="66"/>
+      <c r="H200" s="47"/>
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
@@ -6339,9 +6407,9 @@
       <c r="N200"/>
       <c r="O200"/>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="G201" s="66"/>
-      <c r="H201" s="66"/>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G201" s="47"/>
+      <c r="H201" s="47"/>
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
@@ -6350,7 +6418,7 @@
       <c r="N201"/>
       <c r="O201"/>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
@@ -6365,8 +6433,11 @@
       <c r="M202"/>
       <c r="N202"/>
       <c r="O202"/>
-    </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="P202" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
@@ -6382,7 +6453,7 @@
       <c r="N203"/>
       <c r="O203"/>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B204" s="2" t="s">
         <v>300</v>
       </c>
@@ -6396,18 +6467,18 @@
       <c r="N204"/>
       <c r="O204"/>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B205" s="46" t="s">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B205" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="46"/>
+      <c r="C205" s="38"/>
       <c r="D205" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E205" s="32" t="s">
+      <c r="E205" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F205" s="32"/>
+      <c r="F205" s="39"/>
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -6418,7 +6489,7 @@
       <c r="N205"/>
       <c r="O205"/>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B206" s="3" t="s">
         <v>10</v>
       </c>
@@ -6426,8 +6497,8 @@
         <v>11</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="30"/>
-      <c r="F206" s="31"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="44"/>
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -6438,7 +6509,7 @@
       <c r="N206"/>
       <c r="O206"/>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B207" s="25" t="s">
         <v>149</v>
       </c>
@@ -6448,10 +6519,10 @@
       <c r="D207" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E207" s="50" t="s">
+      <c r="E207" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="F207" s="51"/>
+      <c r="F207" s="46"/>
       <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -6468,17 +6539,17 @@
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="46"/>
+      <c r="C210" s="38"/>
       <c r="D210" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="32" t="s">
+      <c r="E210" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="32"/>
+      <c r="F210" s="39"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B211" s="3" t="s">
@@ -6488,8 +6559,8 @@
         <v>11</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="30"/>
-      <c r="F211" s="31"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="44"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B212" s="25" t="s">
@@ -6501,10 +6572,10 @@
       <c r="D212" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E212" s="50" t="s">
+      <c r="E212" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="F212" s="51"/>
+      <c r="F212" s="46"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
@@ -6512,17 +6583,17 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="46" t="s">
+      <c r="B215" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="46"/>
+      <c r="C215" s="38"/>
       <c r="D215" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E215" s="32" t="s">
+      <c r="E215" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F215" s="32"/>
+      <c r="F215" s="39"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B216" s="3" t="s">
@@ -6532,8 +6603,8 @@
         <v>11</v>
       </c>
       <c r="D216" s="3"/>
-      <c r="E216" s="30"/>
-      <c r="F216" s="31"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="44"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B217" s="25" t="s">
@@ -6545,10 +6616,10 @@
       <c r="D217" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="50" t="s">
+      <c r="E217" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="F217" s="51"/>
+      <c r="F217" s="46"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B219" s="2" t="s">
@@ -6556,25 +6627,25 @@
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B220" s="46" t="s">
+      <c r="B220" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="46"/>
+      <c r="C220" s="38"/>
       <c r="D220" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="32" t="s">
+      <c r="E220" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F220" s="32"/>
-      <c r="G220" s="29" t="s">
+      <c r="F220" s="39"/>
+      <c r="G220" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="H220" s="29"/>
-      <c r="I220" s="29"/>
-      <c r="J220" s="29"/>
-      <c r="K220" s="29"/>
-      <c r="L220" s="29"/>
+      <c r="H220" s="42"/>
+      <c r="I220" s="42"/>
+      <c r="J220" s="42"/>
+      <c r="K220" s="42"/>
+      <c r="L220" s="42"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B221" s="3" t="s">
@@ -6584,20 +6655,20 @@
         <v>11</v>
       </c>
       <c r="D221" s="3"/>
-      <c r="E221" s="44"/>
-      <c r="F221" s="44"/>
-      <c r="G221" s="44" t="s">
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="H221" s="44"/>
-      <c r="I221" s="44" t="s">
+      <c r="H221" s="30"/>
+      <c r="I221" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="J221" s="44"/>
-      <c r="K221" s="44" t="s">
+      <c r="J221" s="30"/>
+      <c r="K221" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="L221" s="44"/>
+      <c r="L221" s="30"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B222" s="25" t="s">
@@ -6609,29 +6680,251 @@
       <c r="D222" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E222" s="87" t="s">
+      <c r="E222" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="F222" s="88"/>
-      <c r="G222" s="44" t="s">
+      <c r="F222" s="41"/>
+      <c r="G222" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="H222" s="44"/>
-      <c r="I222" s="44" t="s">
+      <c r="H222" s="30"/>
+      <c r="I222" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="J222" s="44"/>
-      <c r="K222" s="44" t="s">
+      <c r="J222" s="30"/>
+      <c r="K222" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="L222" s="44"/>
+      <c r="L222" s="30"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G223"/>
       <c r="H223"/>
     </row>
+    <row r="233" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P233" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="236" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P236" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="236">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B39:L40"/>
+    <mergeCell ref="B53:L54"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H135"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K149"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:K156"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="I178:N178"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="N180:N181"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="I190:M190"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M194"/>
+    <mergeCell ref="I193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
     <mergeCell ref="G221:H221"/>
     <mergeCell ref="I221:J221"/>
     <mergeCell ref="K221:L221"/>
@@ -6656,218 +6949,6 @@
     <mergeCell ref="E205:F205"/>
     <mergeCell ref="E206:F206"/>
     <mergeCell ref="E207:F207"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="I190:M190"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M194"/>
-    <mergeCell ref="I193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="N180:N181"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="I178:N178"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K149"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:K156"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H135"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H121"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B39:L40"/>
-    <mergeCell ref="B53:L54"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6891,6 +6972,12 @@
     <hyperlink ref="M30:N30" location="数据同步结束" display="数据同步结束"/>
     <hyperlink ref="M31:N31" location="请求当日数据" display="请求当日数据"/>
     <hyperlink ref="M32:N32" location="当日数据返回" display="当日数据返回"/>
+    <hyperlink ref="P65" location="协议格式概览" display="回首页"/>
+    <hyperlink ref="P98" location="协议格式概览" display="回首页"/>
+    <hyperlink ref="P132" location="协议格式概览" display="回首页"/>
+    <hyperlink ref="P166" location="协议格式概览" display="回首页"/>
+    <hyperlink ref="P199" location="协议格式概览" display="回首页"/>
+    <hyperlink ref="P233" location="协议格式概览" display="回首页"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/协议说明.xlsx
+++ b/doc/协议说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\Android\L58Tool\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sean\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="0" windowWidth="20880" windowHeight="8595"/>
+    <workbookView xWindow="4995" yWindow="0" windowWidth="20880" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="321">
   <si>
     <t>L1Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1498,6 +1498,10 @@
   </si>
   <si>
     <t>回首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail：x7chen@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1924,18 +1928,165 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1948,161 +2099,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3489,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3501,16 +3505,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="N2" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -3560,37 +3568,37 @@
       <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="44"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="38" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="42" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -3599,18 +3607,18 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3618,10 +3626,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -3646,15 +3654,15 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="H9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="45"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
@@ -3668,10 +3676,10 @@
       <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="81"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
@@ -3690,18 +3698,18 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="M12" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="N12" s="81"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3723,10 +3731,10 @@
       <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="N13" s="81"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3748,10 +3756,10 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="80" t="s">
+      <c r="M14" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="N14" s="81"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="7" t="s">
         <v>60</v>
       </c>
@@ -3761,10 +3769,10 @@
       <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="80" t="s">
+      <c r="M15" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="N15" s="81"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="7" t="s">
         <v>57</v>
       </c>
@@ -3774,10 +3782,10 @@
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="80" t="s">
+      <c r="M16" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="N16" s="81"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
@@ -3787,10 +3795,10 @@
       <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="80" t="s">
+      <c r="M17" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="N17" s="81"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
@@ -3802,10 +3810,10 @@
       <c r="L18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="80" t="s">
+      <c r="M18" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="81"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3821,10 +3829,10 @@
       <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="80" t="s">
+      <c r="M19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="81"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3840,10 +3848,10 @@
       <c r="L20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="80" t="s">
+      <c r="M20" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="N20" s="81"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3871,10 +3879,10 @@
       <c r="L22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="88"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3908,26 +3916,26 @@
       <c r="L23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="88"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="P24" s="11"/>
@@ -3939,25 +3947,25 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="43" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="32"/>
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="82" t="s">
+      <c r="M25" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="83"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3970,10 +3978,10 @@
       <c r="L26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="82" t="s">
+      <c r="M26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="83"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3983,31 +3991,31 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="82" t="s">
+      <c r="M27" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="N27" s="83"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D28" s="43">
+      <c r="D28" s="31">
         <v>0</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="H28" s="43" t="s">
+      <c r="E28" s="32"/>
+      <c r="H28" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="44"/>
+      <c r="I28" s="32"/>
       <c r="L28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="82" t="s">
+      <c r="M28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="83"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="17" t="s">
         <v>57</v>
       </c>
@@ -4017,10 +4025,10 @@
       <c r="L29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="82" t="s">
+      <c r="M29" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="83"/>
+      <c r="N29" s="35"/>
       <c r="O29" s="17" t="s">
         <v>58</v>
       </c>
@@ -4036,10 +4044,10 @@
       <c r="L30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="82" t="s">
+      <c r="M30" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="N30" s="83"/>
+      <c r="N30" s="35"/>
       <c r="O30" s="17" t="s">
         <v>58</v>
       </c>
@@ -4058,17 +4066,17 @@
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="31">
         <v>0</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="32"/>
       <c r="L31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="82" t="s">
+      <c r="M31" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="83"/>
+      <c r="N31" s="35"/>
       <c r="O31" s="17" t="s">
         <v>57</v>
       </c>
@@ -4090,10 +4098,10 @@
       <c r="L32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="82" t="s">
+      <c r="M32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="83"/>
+      <c r="N32" s="35"/>
       <c r="O32" s="17" t="s">
         <v>58</v>
       </c>
@@ -4122,13 +4130,13 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="19"/>
@@ -4138,35 +4146,35 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -4275,32 +4283,32 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
@@ -4420,18 +4428,18 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D70" s="77" t="s">
+      <c r="D70" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71"/>
@@ -4441,13 +4449,13 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="37" t="s">
+      <c r="J71" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
+      <c r="K71" s="86"/>
+      <c r="L71" s="86"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="86"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
@@ -4459,26 +4467,26 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="38"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="58" t="s">
+      <c r="F73" s="33"/>
+      <c r="G73" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="60"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="50"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
@@ -4488,12 +4496,12 @@
         <v>11</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="43" t="s">
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="44"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4520,14 +4528,14 @@
       <c r="D75" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="F75" s="46"/>
-      <c r="G75" s="43" t="s">
+      <c r="F75" s="52"/>
+      <c r="G75" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="44"/>
+      <c r="H75" s="32"/>
       <c r="I75" s="3" t="s">
         <v>123</v>
       </c>
@@ -4550,23 +4558,23 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="70" t="s">
+      <c r="G76" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="71"/>
-      <c r="I76" s="61" t="s">
+      <c r="H76" s="57"/>
+      <c r="I76" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="61" t="s">
+      <c r="J76" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="K76" s="61" t="s">
+      <c r="K76" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="L76" s="61" t="s">
+      <c r="L76" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="M76" s="61" t="s">
+      <c r="M76" s="53" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4576,13 +4584,13 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B78"/>
@@ -4590,13 +4598,13 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79"/>
@@ -4625,26 +4633,26 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="38"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="39"/>
-      <c r="G81" s="58" t="s">
+      <c r="F81" s="33"/>
+      <c r="G81" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="60"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="50"/>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
@@ -4654,20 +4662,20 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="30" t="s">
+      <c r="E82" s="31"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30" t="s">
+      <c r="H82" s="45"/>
+      <c r="I82" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30" t="s">
+      <c r="J82" s="45"/>
+      <c r="K82" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="L82" s="30"/>
+      <c r="L82" s="45"/>
       <c r="M82" s="8" t="s">
         <v>152</v>
       </c>
@@ -4682,22 +4690,22 @@
       <c r="D83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="44"/>
-      <c r="G83" s="30" t="s">
+      <c r="F83" s="32"/>
+      <c r="G83" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30" t="s">
+      <c r="H83" s="45"/>
+      <c r="I83" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30" t="s">
+      <c r="J83" s="45"/>
+      <c r="K83" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="L83" s="30"/>
+      <c r="L83" s="45"/>
       <c r="M83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4732,17 +4740,17 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="30" t="s">
+      <c r="G85" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -4760,10 +4768,10 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="43" t="s">
+      <c r="G86" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="44"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="3" t="s">
         <v>15</v>
       </c>
@@ -4799,10 +4807,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="43" t="s">
+      <c r="G87" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="44"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="3" t="s">
         <v>123</v>
       </c>
@@ -4838,27 +4846,27 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="70" t="s">
+      <c r="G88" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="71"/>
-      <c r="I88" s="61" t="s">
+      <c r="H88" s="57"/>
+      <c r="I88" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="61" t="s">
+      <c r="J88" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="61" t="s">
+      <c r="K88" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="L88" s="61" t="s">
+      <c r="L88" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="61" t="s">
+      <c r="M88" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="N88" s="30"/>
-      <c r="O88" s="69" t="s">
+      <c r="N88" s="45"/>
+      <c r="O88" s="62" t="s">
         <v>188</v>
       </c>
       <c r="R88"/>
@@ -4875,15 +4883,15 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="69"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="62"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -4898,15 +4906,15 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="69"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="62"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E91"/>
@@ -4936,17 +4944,17 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="38"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="39"/>
+      <c r="F93" s="33"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4964,8 +4972,8 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="44"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="32"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4985,10 +4993,10 @@
       <c r="D95" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="45" t="s">
+      <c r="E95" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="F95" s="46"/>
+      <c r="F95" s="52"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -5004,17 +5012,17 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="39" t="s">
+      <c r="E98" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="39"/>
+      <c r="F98" s="33"/>
       <c r="P98" s="29" t="s">
         <v>319</v>
       </c>
@@ -5027,8 +5035,8 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="44"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B100" s="25" t="s">
@@ -5040,10 +5048,10 @@
       <c r="D100" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="F100" s="44"/>
+      <c r="F100" s="32"/>
       <c r="H100" s="2" t="s">
         <v>150</v>
       </c>
@@ -5059,23 +5067,23 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="38"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="39" t="s">
+      <c r="E104" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="39"/>
-      <c r="G104" s="42" t="s">
+      <c r="F104" s="33"/>
+      <c r="G104" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -5088,14 +5096,14 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="31" t="s">
+      <c r="E105" s="31"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="33"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="81"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -5110,14 +5118,14 @@
       <c r="D106" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="45" t="s">
+      <c r="E106" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="F106" s="46"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="36"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="85"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -5134,24 +5142,24 @@
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="38"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="39" t="s">
+      <c r="E110" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="39"/>
-      <c r="G110" s="42" t="s">
+      <c r="F110" s="33"/>
+      <c r="G110" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="42"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
@@ -5161,8 +5169,8 @@
         <v>11</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="48"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="65"/>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
@@ -5189,10 +5197,10 @@
       <c r="D112" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="45" t="s">
+      <c r="E112" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="F112" s="68"/>
+      <c r="F112" s="67"/>
       <c r="G112" s="3" t="s">
         <v>159</v>
       </c>
@@ -5210,26 +5218,26 @@
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G113" s="50" t="s">
+      <c r="G113" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="H113" s="50" t="s">
+      <c r="H113" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="I113" s="30" t="s">
+      <c r="I113" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="J113" s="30" t="s">
+      <c r="J113" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="K113" s="30"/>
+      <c r="K113" s="45"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
@@ -5237,21 +5245,21 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="38"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="39" t="s">
+      <c r="E117" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="39"/>
-      <c r="G117" s="42" t="s">
+      <c r="F117" s="33"/>
+      <c r="G117" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H117" s="42"/>
+      <c r="H117" s="30"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -5264,10 +5272,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="44"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="32"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="25" t="s">
@@ -5279,24 +5287,24 @@
       <c r="D119" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E119" s="45" t="s">
+      <c r="E119" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="F119" s="46"/>
-      <c r="G119" s="30" t="s">
+      <c r="F119" s="52"/>
+      <c r="G119" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H119" s="30"/>
+      <c r="H119" s="45"/>
     </row>
     <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="47" t="s">
+      <c r="G120" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="H120" s="47"/>
+      <c r="H120" s="66"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
@@ -5304,26 +5312,26 @@
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="38"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="39" t="s">
+      <c r="E124" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="39"/>
-      <c r="G124" s="42" t="s">
+      <c r="F124" s="33"/>
+      <c r="G124" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
-      <c r="M124" s="42"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+      <c r="M124" s="30"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
@@ -5333,8 +5341,8 @@
         <v>11</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="48"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="65"/>
       <c r="G125" s="3" t="s">
         <v>169</v>
       </c>
@@ -5367,10 +5375,10 @@
       <c r="D126" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E126" s="45" t="s">
+      <c r="E126" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="F126" s="68"/>
+      <c r="F126" s="67"/>
       <c r="G126" s="3" t="s">
         <v>177</v>
       </c>
@@ -5394,34 +5402,34 @@
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G127" s="50"/>
-      <c r="H127" s="50" t="s">
+      <c r="G127" s="63"/>
+      <c r="H127" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="I127" s="30" t="s">
+      <c r="I127" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="J127" s="30" t="s">
+      <c r="J127" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="K127" s="47" t="s">
+      <c r="K127" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="L127" s="47" t="s">
+      <c r="L127" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="M127" s="66" t="s">
+      <c r="M127" s="68" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="30"/>
-      <c r="J128" s="30"/>
-      <c r="K128" s="30"/>
-      <c r="L128" s="30"/>
-      <c r="M128" s="67"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="45"/>
+      <c r="K128" s="45"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="69"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
@@ -5429,21 +5437,21 @@
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="38"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="39" t="s">
+      <c r="E131" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="39"/>
-      <c r="G131" s="42" t="s">
+      <c r="F131" s="33"/>
+      <c r="G131" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H131" s="42"/>
+      <c r="H131" s="30"/>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
@@ -5453,10 +5461,10 @@
         <v>11</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="44"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="32"/>
       <c r="P132" s="29" t="s">
         <v>319</v>
       </c>
@@ -5471,24 +5479,24 @@
       <c r="D133" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E133" s="45" t="s">
+      <c r="E133" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="F133" s="46"/>
-      <c r="G133" s="30" t="s">
+      <c r="F133" s="52"/>
+      <c r="G133" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H133" s="30"/>
+      <c r="H133" s="45"/>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G134" s="47" t="s">
+      <c r="G134" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="H134" s="47"/>
+      <c r="H134" s="66"/>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
       <c r="P135" s="29" t="s">
         <v>317</v>
       </c>
@@ -5499,21 +5507,21 @@
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="38"/>
+      <c r="C138" s="47"/>
       <c r="D138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="39" t="s">
+      <c r="E138" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="39"/>
-      <c r="G138" s="42" t="s">
+      <c r="F138" s="33"/>
+      <c r="G138" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H138" s="42"/>
+      <c r="H138" s="30"/>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B139" s="3" t="s">
@@ -5523,10 +5531,10 @@
         <v>11</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="43"/>
-      <c r="H139" s="44"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="32"/>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B140" s="25" t="s">
@@ -5538,24 +5546,24 @@
       <c r="D140" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E140" s="45" t="s">
+      <c r="E140" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="F140" s="46"/>
-      <c r="G140" s="30" t="s">
+      <c r="F140" s="52"/>
+      <c r="G140" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="H140" s="30"/>
+      <c r="H140" s="45"/>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G141" s="47" t="s">
+      <c r="G141" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="H141" s="47"/>
+      <c r="H141" s="66"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="66"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
@@ -5563,24 +5571,24 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="38"/>
+      <c r="C145" s="47"/>
       <c r="D145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="39" t="s">
+      <c r="E145" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="39"/>
-      <c r="G145" s="42" t="s">
+      <c r="F145" s="33"/>
+      <c r="G145" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="42"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
@@ -5590,17 +5598,17 @@
         <v>11</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H146" s="30" t="s">
+      <c r="H146" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45"/>
+      <c r="K146" s="45"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B147" s="25" t="s">
@@ -5612,35 +5620,35 @@
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="63" t="s">
+      <c r="E147" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F147" s="30"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="45"/>
+      <c r="K147" s="45"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G148" s="64" t="s">
+      <c r="G148" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="H148" s="64" t="s">
+      <c r="H148" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="I148" s="65"/>
-      <c r="J148" s="65"/>
-      <c r="K148" s="65"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="65"/>
-      <c r="H149" s="65"/>
-      <c r="I149" s="65"/>
-      <c r="J149" s="65"/>
-      <c r="K149" s="65"/>
+      <c r="G149" s="72"/>
+      <c r="H149" s="72"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="72"/>
+      <c r="K149" s="72"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
@@ -5648,24 +5656,24 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="38"/>
+      <c r="C152" s="47"/>
       <c r="D152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="39" t="s">
+      <c r="E152" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="39"/>
-      <c r="G152" s="42" t="s">
+      <c r="F152" s="33"/>
+      <c r="G152" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="42"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
+      <c r="K152" s="30"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B153" s="3" t="s">
@@ -5675,17 +5683,17 @@
         <v>11</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
       <c r="G153" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H153" s="30" t="s">
+      <c r="H153" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="I153" s="30"/>
-      <c r="J153" s="30"/>
-      <c r="K153" s="30"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B154" s="25" t="s">
@@ -5697,35 +5705,35 @@
       <c r="D154" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="63" t="s">
+      <c r="E154" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F154" s="30"/>
+      <c r="F154" s="45"/>
       <c r="G154" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H154" s="30"/>
-      <c r="I154" s="30"/>
-      <c r="J154" s="30"/>
-      <c r="K154" s="30"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G155" s="64" t="s">
+      <c r="G155" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="H155" s="64" t="s">
+      <c r="H155" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="I155" s="65"/>
-      <c r="J155" s="65"/>
-      <c r="K155" s="65"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="72"/>
+      <c r="K155" s="72"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G156" s="65"/>
-      <c r="H156" s="65"/>
-      <c r="I156" s="65"/>
-      <c r="J156" s="65"/>
-      <c r="K156" s="65"/>
+      <c r="G156" s="72"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="72"/>
+      <c r="J156" s="72"/>
+      <c r="K156" s="72"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
@@ -5733,17 +5741,17 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="38"/>
+      <c r="C159" s="47"/>
       <c r="D159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="39" t="s">
+      <c r="E159" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="39"/>
+      <c r="F159" s="33"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B160" s="3" t="s">
@@ -5753,8 +5761,8 @@
         <v>11</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="44"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="32"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="25" t="s">
@@ -5766,10 +5774,10 @@
       <c r="D161" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="45" t="s">
+      <c r="E161" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="F161" s="46"/>
+      <c r="F161" s="52"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163"/>
@@ -5895,26 +5903,26 @@
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B172" s="54" t="s">
+      <c r="B172" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="55"/>
+      <c r="C172" s="74"/>
       <c r="D172" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="56" t="s">
+      <c r="E172" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="57"/>
-      <c r="G172" s="58" t="s">
+      <c r="F172" s="76"/>
+      <c r="G172" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
-      <c r="L172" s="59"/>
-      <c r="M172" s="60"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="49"/>
+      <c r="K172" s="49"/>
+      <c r="L172" s="49"/>
+      <c r="M172" s="50"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B173" s="3" t="s">
@@ -5924,20 +5932,20 @@
         <v>11</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="43" t="s">
+      <c r="E173" s="31"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="H173" s="44"/>
-      <c r="I173" s="43" t="s">
+      <c r="H173" s="32"/>
+      <c r="I173" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="J173" s="44"/>
-      <c r="K173" s="43" t="s">
+      <c r="J173" s="32"/>
+      <c r="K173" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="L173" s="44"/>
+      <c r="L173" s="32"/>
       <c r="M173" s="8" t="s">
         <v>214</v>
       </c>
@@ -5952,43 +5960,43 @@
       <c r="D174" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E174" s="43" t="s">
+      <c r="E174" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="F174" s="44"/>
-      <c r="G174" s="43" t="s">
+      <c r="F174" s="32"/>
+      <c r="G174" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="H174" s="44"/>
-      <c r="I174" s="43" t="s">
+      <c r="H174" s="32"/>
+      <c r="I174" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="J174" s="44"/>
-      <c r="K174" s="43" t="s">
+      <c r="J174" s="32"/>
+      <c r="K174" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="L174" s="44"/>
+      <c r="L174" s="32"/>
       <c r="M174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B178" s="43" t="s">
+      <c r="B178" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="44"/>
-      <c r="I178" s="30" t="s">
+      <c r="C178" s="65"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="65"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="32"/>
+      <c r="I178" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="J178" s="30"/>
-      <c r="K178" s="30"/>
-      <c r="L178" s="30"/>
-      <c r="M178" s="30"/>
-      <c r="N178" s="30"/>
+      <c r="J178" s="45"/>
+      <c r="K178" s="45"/>
+      <c r="L178" s="45"/>
+      <c r="M178" s="45"/>
+      <c r="N178" s="45"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
@@ -6047,22 +6055,22 @@
       <c r="G180" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I180" s="61" t="s">
+      <c r="I180" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="J180" s="52" t="s">
+      <c r="J180" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="K180" s="52" t="s">
+      <c r="K180" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="L180" s="52" t="s">
+      <c r="L180" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="M180" s="52" t="s">
+      <c r="M180" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="N180" s="52" t="s">
+      <c r="N180" s="77" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6081,12 +6089,12 @@
       <c r="G181" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I181" s="62"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
-      <c r="L181" s="53"/>
-      <c r="M181" s="53"/>
-      <c r="N181" s="53"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="78"/>
+      <c r="K181" s="78"/>
+      <c r="L181" s="78"/>
+      <c r="M181" s="78"/>
+      <c r="N181" s="78"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
@@ -6094,26 +6102,26 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B184" s="54" t="s">
+      <c r="B184" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="55"/>
+      <c r="C184" s="74"/>
       <c r="D184" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="56" t="s">
+      <c r="E184" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="57"/>
-      <c r="G184" s="58" t="s">
+      <c r="F184" s="76"/>
+      <c r="G184" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H184" s="59"/>
-      <c r="I184" s="59"/>
-      <c r="J184" s="59"/>
-      <c r="K184" s="59"/>
-      <c r="L184" s="59"/>
-      <c r="M184" s="60"/>
+      <c r="H184" s="49"/>
+      <c r="I184" s="49"/>
+      <c r="J184" s="49"/>
+      <c r="K184" s="49"/>
+      <c r="L184" s="49"/>
+      <c r="M184" s="50"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
@@ -6123,20 +6131,20 @@
         <v>11</v>
       </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="43" t="s">
+      <c r="E185" s="31"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="H185" s="44"/>
-      <c r="I185" s="43" t="s">
+      <c r="H185" s="32"/>
+      <c r="I185" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="J185" s="44"/>
-      <c r="K185" s="43" t="s">
+      <c r="J185" s="32"/>
+      <c r="K185" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="L185" s="44"/>
+      <c r="L185" s="32"/>
       <c r="M185" s="8" t="s">
         <v>214</v>
       </c>
@@ -6151,42 +6159,42 @@
       <c r="D186" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="E186" s="43" t="s">
+      <c r="E186" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="F186" s="44"/>
-      <c r="G186" s="43" t="s">
+      <c r="F186" s="32"/>
+      <c r="G186" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="H186" s="44"/>
-      <c r="I186" s="43" t="s">
+      <c r="H186" s="32"/>
+      <c r="I186" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="J186" s="44"/>
-      <c r="K186" s="43" t="s">
+      <c r="J186" s="32"/>
+      <c r="K186" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="L186" s="44"/>
+      <c r="L186" s="32"/>
       <c r="M186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B190" s="43" t="s">
+      <c r="B190" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="C190" s="48"/>
-      <c r="D190" s="48"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="44"/>
-      <c r="I190" s="43" t="s">
+      <c r="C190" s="65"/>
+      <c r="D190" s="65"/>
+      <c r="E190" s="65"/>
+      <c r="F190" s="65"/>
+      <c r="G190" s="32"/>
+      <c r="I190" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="J190" s="48"/>
-      <c r="K190" s="48"/>
-      <c r="L190" s="48"/>
-      <c r="M190" s="44"/>
+      <c r="J190" s="65"/>
+      <c r="K190" s="65"/>
+      <c r="L190" s="65"/>
+      <c r="M190" s="32"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
@@ -6202,21 +6210,21 @@
       <c r="E191" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F191" s="43" t="s">
+      <c r="F191" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="G191" s="44"/>
-      <c r="I191" s="43" t="s">
+      <c r="G191" s="32"/>
+      <c r="I191" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="J191" s="44"/>
+      <c r="J191" s="32"/>
       <c r="K191" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L191" s="43" t="s">
+      <c r="L191" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="M191" s="44"/>
+      <c r="M191" s="32"/>
       <c r="N191"/>
     </row>
     <row r="192" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,21 +6240,21 @@
       <c r="E192" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F192" s="43" t="s">
+      <c r="F192" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="G192" s="44"/>
-      <c r="I192" s="49" t="s">
+      <c r="G192" s="32"/>
+      <c r="I192" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="J192" s="49"/>
+      <c r="J192" s="79"/>
       <c r="K192" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="L192" s="31" t="s">
+      <c r="L192" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="M192" s="33"/>
+      <c r="M192" s="81"/>
       <c r="N192"/>
       <c r="O192"/>
     </row>
@@ -6261,19 +6269,19 @@
       <c r="E193" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F193" s="43" t="s">
+      <c r="F193" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="G193" s="44"/>
-      <c r="I193" s="47" t="s">
+      <c r="G193" s="32"/>
+      <c r="I193" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="J193" s="47"/>
-      <c r="K193" s="30"/>
-      <c r="L193" s="50" t="s">
+      <c r="J193" s="66"/>
+      <c r="K193" s="45"/>
+      <c r="L193" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="M193" s="51"/>
+      <c r="M193" s="64"/>
       <c r="N193"/>
       <c r="O193"/>
     </row>
@@ -6285,11 +6293,11 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
-      <c r="I194" s="47"/>
-      <c r="J194" s="47"/>
-      <c r="K194" s="30"/>
-      <c r="L194" s="51"/>
-      <c r="M194" s="51"/>
+      <c r="I194" s="66"/>
+      <c r="J194" s="66"/>
+      <c r="K194" s="45"/>
+      <c r="L194" s="64"/>
+      <c r="M194" s="64"/>
       <c r="N194"/>
       <c r="O194"/>
     </row>
@@ -6322,21 +6330,21 @@
       <c r="O196"/>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="38"/>
+      <c r="C197" s="47"/>
       <c r="D197" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="39" t="s">
+      <c r="E197" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F197" s="39"/>
-      <c r="G197" s="42" t="s">
+      <c r="F197" s="33"/>
+      <c r="G197" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H197" s="42"/>
+      <c r="H197" s="30"/>
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
@@ -6353,10 +6361,10 @@
         <v>11</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="30"/>
-      <c r="F198" s="30"/>
-      <c r="G198" s="43"/>
-      <c r="H198" s="44"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="31"/>
+      <c r="H198" s="32"/>
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
@@ -6375,14 +6383,14 @@
       <c r="D199" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E199" s="45" t="s">
+      <c r="E199" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="F199" s="46"/>
-      <c r="G199" s="30" t="s">
+      <c r="F199" s="52"/>
+      <c r="G199" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="H199" s="30"/>
+      <c r="H199" s="45"/>
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
@@ -6395,10 +6403,10 @@
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G200" s="47" t="s">
+      <c r="G200" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="H200" s="47"/>
+      <c r="H200" s="66"/>
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
@@ -6408,8 +6416,8 @@
       <c r="O200"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G201" s="47"/>
-      <c r="H201" s="47"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
@@ -6468,17 +6476,17 @@
       <c r="O204"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="38"/>
+      <c r="C205" s="47"/>
       <c r="D205" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E205" s="39" t="s">
+      <c r="E205" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F205" s="39"/>
+      <c r="F205" s="33"/>
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -6497,8 +6505,8 @@
         <v>11</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="44"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="32"/>
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -6519,10 +6527,10 @@
       <c r="D207" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E207" s="45" t="s">
+      <c r="E207" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="F207" s="46"/>
+      <c r="F207" s="52"/>
       <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -6539,17 +6547,17 @@
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B210" s="38" t="s">
+      <c r="B210" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="38"/>
+      <c r="C210" s="47"/>
       <c r="D210" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="39" t="s">
+      <c r="E210" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="39"/>
+      <c r="F210" s="33"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B211" s="3" t="s">
@@ -6559,8 +6567,8 @@
         <v>11</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="43"/>
-      <c r="F211" s="44"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="32"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B212" s="25" t="s">
@@ -6572,10 +6580,10 @@
       <c r="D212" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E212" s="45" t="s">
+      <c r="E212" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="F212" s="46"/>
+      <c r="F212" s="52"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
@@ -6583,17 +6591,17 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="38" t="s">
+      <c r="B215" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="38"/>
+      <c r="C215" s="47"/>
       <c r="D215" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E215" s="39" t="s">
+      <c r="E215" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F215" s="39"/>
+      <c r="F215" s="33"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B216" s="3" t="s">
@@ -6603,8 +6611,8 @@
         <v>11</v>
       </c>
       <c r="D216" s="3"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="44"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="32"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B217" s="25" t="s">
@@ -6616,10 +6624,10 @@
       <c r="D217" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="45" t="s">
+      <c r="E217" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="F217" s="46"/>
+      <c r="F217" s="52"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B219" s="2" t="s">
@@ -6627,25 +6635,25 @@
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B220" s="38" t="s">
+      <c r="B220" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="38"/>
+      <c r="C220" s="47"/>
       <c r="D220" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="39" t="s">
+      <c r="E220" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F220" s="39"/>
-      <c r="G220" s="42" t="s">
+      <c r="F220" s="33"/>
+      <c r="G220" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="H220" s="42"/>
-      <c r="I220" s="42"/>
-      <c r="J220" s="42"/>
-      <c r="K220" s="42"/>
-      <c r="L220" s="42"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="30"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B221" s="3" t="s">
@@ -6655,20 +6663,20 @@
         <v>11</v>
       </c>
       <c r="D221" s="3"/>
-      <c r="E221" s="30"/>
-      <c r="F221" s="30"/>
-      <c r="G221" s="30" t="s">
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="H221" s="30"/>
-      <c r="I221" s="30" t="s">
+      <c r="H221" s="45"/>
+      <c r="I221" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="J221" s="30"/>
-      <c r="K221" s="30" t="s">
+      <c r="J221" s="45"/>
+      <c r="K221" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="L221" s="30"/>
+      <c r="L221" s="45"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B222" s="25" t="s">
@@ -6680,22 +6688,22 @@
       <c r="D222" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E222" s="40" t="s">
+      <c r="E222" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="F222" s="41"/>
-      <c r="G222" s="30" t="s">
+      <c r="F222" s="88"/>
+      <c r="G222" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H222" s="30"/>
-      <c r="I222" s="30" t="s">
+      <c r="H222" s="45"/>
+      <c r="I222" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="J222" s="30"/>
-      <c r="K222" s="30" t="s">
+      <c r="J222" s="45"/>
+      <c r="K222" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="L222" s="30"/>
+      <c r="L222" s="45"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G223"/>
@@ -6713,35 +6721,189 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I221:J221"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="G105:J106"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="I222:J222"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="G200:H201"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="N180:N181"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="I190:M190"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M194"/>
+    <mergeCell ref="I193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="I178:N178"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K149"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:K156"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H135"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="G81:M81"/>
@@ -6766,189 +6928,35 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H121"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H135"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K149"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:K156"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H142"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="I178:N178"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="N180:N181"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="I190:M190"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M194"/>
-    <mergeCell ref="I193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I221:J221"/>
-    <mergeCell ref="K221:L221"/>
-    <mergeCell ref="G105:J106"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="I222:J222"/>
-    <mergeCell ref="K222:L222"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="G200:H201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/协议说明.xlsx
+++ b/doc/协议说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sean\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\Android\L58Tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="0" windowWidth="20880" windowHeight="8595"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="20880" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -758,14 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位0.5cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位0.5kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 : 女
 1 : 男</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1502,6 +1494,14 @@
   </si>
   <si>
     <t>Mail：x7chen@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,6 +1928,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1937,7 +1976,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,12 +2090,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1967,146 +2105,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:L54"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3505,20 +3505,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="N2" s="89" t="s">
-        <v>320</v>
-      </c>
-      <c r="O2" s="89"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="N2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -3568,37 +3568,37 @@
       <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="30"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -3607,18 +3607,18 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3626,10 +3626,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -3654,15 +3654,15 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="H9" s="45" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="31"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
@@ -3676,10 +3676,10 @@
       <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
@@ -3698,18 +3698,18 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="N12" s="44"/>
+      <c r="M12" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="N12" s="81"/>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3731,10 +3731,10 @@
       <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" s="44"/>
+      <c r="M13" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="N13" s="81"/>
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3756,10 +3756,10 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="N14" s="44"/>
+      <c r="M14" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="N14" s="81"/>
       <c r="O14" s="7" t="s">
         <v>60</v>
       </c>
@@ -3769,10 +3769,10 @@
       <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="N15" s="44"/>
+      <c r="M15" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="N15" s="81"/>
       <c r="O15" s="7" t="s">
         <v>57</v>
       </c>
@@ -3782,10 +3782,10 @@
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="N16" s="44"/>
+      <c r="M16" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="N16" s="81"/>
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
@@ -3795,10 +3795,10 @@
       <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="N17" s="44"/>
+      <c r="M17" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="N17" s="81"/>
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
@@ -3810,10 +3810,10 @@
       <c r="L18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="N18" s="44"/>
+      <c r="M18" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="N18" s="81"/>
       <c r="O18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3829,10 +3829,10 @@
       <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="44"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3848,10 +3848,10 @@
       <c r="L20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="N20" s="44"/>
+      <c r="M20" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="N20" s="81"/>
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3879,10 +3879,10 @@
       <c r="L22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="88"/>
       <c r="O22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3916,26 +3916,26 @@
       <c r="L23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="41" t="s">
+      <c r="M23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="42"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="P24" s="11"/>
@@ -3947,25 +3947,25 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31" t="s">
+      <c r="G25" s="45"/>
+      <c r="H25" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="45"/>
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="35"/>
+      <c r="N25" s="83"/>
       <c r="O25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3978,10 +3978,10 @@
       <c r="L26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="83"/>
       <c r="O26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3991,31 +3991,31 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="N27" s="35"/>
+      <c r="M27" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="N27" s="83"/>
       <c r="O27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D28" s="31">
+      <c r="D28" s="44">
         <v>0</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="H28" s="31" t="s">
+      <c r="E28" s="45"/>
+      <c r="H28" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="32"/>
+      <c r="I28" s="45"/>
       <c r="L28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="34" t="s">
+      <c r="M28" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="35"/>
+      <c r="N28" s="83"/>
       <c r="O28" s="17" t="s">
         <v>57</v>
       </c>
@@ -4025,10 +4025,10 @@
       <c r="L29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="35"/>
+      <c r="N29" s="83"/>
       <c r="O29" s="17" t="s">
         <v>58</v>
       </c>
@@ -4044,10 +4044,10 @@
       <c r="L30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="N30" s="35"/>
+      <c r="M30" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="N30" s="83"/>
       <c r="O30" s="17" t="s">
         <v>58</v>
       </c>
@@ -4066,17 +4066,17 @@
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="44">
         <v>0</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="45"/>
       <c r="L31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="35"/>
+      <c r="N31" s="83"/>
       <c r="O31" s="17" t="s">
         <v>57</v>
       </c>
@@ -4098,10 +4098,10 @@
       <c r="L32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="35"/>
+      <c r="N32" s="83"/>
       <c r="O32" s="17" t="s">
         <v>58</v>
       </c>
@@ -4126,17 +4126,17 @@
         <v>112</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="19"/>
@@ -4146,35 +4146,35 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -4227,10 +4227,10 @@
         <v>72</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
@@ -4246,7 +4246,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
@@ -4254,10 +4254,10 @@
         <v>72</v>
       </c>
       <c r="C49" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
@@ -4265,10 +4265,10 @@
         <v>71</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
@@ -4283,32 +4283,32 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
@@ -4397,7 +4397,7 @@
         <v>111</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
@@ -4424,22 +4424,22 @@
         <v>110</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71"/>
@@ -4449,13 +4449,13 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="86" t="s">
-        <v>275</v>
-      </c>
-      <c r="K71" s="86"/>
-      <c r="L71" s="86"/>
-      <c r="M71" s="86"/>
-      <c r="N71" s="86"/>
+      <c r="J71" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
@@ -4467,26 +4467,26 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="47"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="48" t="s">
+      <c r="F73" s="40"/>
+      <c r="G73" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="50"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="61"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
@@ -4496,12 +4496,12 @@
         <v>11</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="31" t="s">
+      <c r="E74" s="44"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="32"/>
+      <c r="H74" s="45"/>
       <c r="I74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4528,14 +4528,14 @@
       <c r="D75" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="31" t="s">
+      <c r="E75" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="47"/>
+      <c r="G75" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="32"/>
+      <c r="H75" s="45"/>
       <c r="I75" s="3" t="s">
         <v>123</v>
       </c>
@@ -4558,23 +4558,23 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="57"/>
-      <c r="I76" s="53" t="s">
+      <c r="H76" s="72"/>
+      <c r="I76" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="53" t="s">
+      <c r="J76" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="L76" s="53" t="s">
+      <c r="L76" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="M76" s="53" t="s">
+      <c r="M76" s="62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4584,13 +4584,13 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B78"/>
@@ -4598,13 +4598,13 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="55"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79"/>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -4633,26 +4633,26 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="48" t="s">
+      <c r="F81" s="40"/>
+      <c r="G81" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="50"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="61"/>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
@@ -4662,20 +4662,20 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="45" t="s">
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="L82" s="45"/>
+      <c r="L82" s="31"/>
       <c r="M82" s="8" t="s">
         <v>152</v>
       </c>
@@ -4690,22 +4690,22 @@
       <c r="D83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="F83" s="32"/>
-      <c r="G83" s="45" t="s">
+      <c r="E83" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45" t="s">
+      <c r="H83" s="31"/>
+      <c r="I83" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45" t="s">
+      <c r="J83" s="31"/>
+      <c r="K83" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="L83" s="45"/>
+      <c r="L83" s="31"/>
       <c r="M83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4740,17 +4740,17 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="45" t="s">
+      <c r="G85" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="45"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -4768,10 +4768,10 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="31" t="s">
+      <c r="G86" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="32"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="3" t="s">
         <v>15</v>
       </c>
@@ -4807,10 +4807,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="31" t="s">
+      <c r="G87" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="32"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="3" t="s">
         <v>123</v>
       </c>
@@ -4846,28 +4846,28 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="56" t="s">
+      <c r="G88" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="57"/>
-      <c r="I88" s="53" t="s">
+      <c r="H88" s="72"/>
+      <c r="I88" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="53" t="s">
+      <c r="J88" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="53" t="s">
+      <c r="K88" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="L88" s="53" t="s">
+      <c r="L88" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="53" t="s">
+      <c r="M88" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="N88" s="45"/>
-      <c r="O88" s="62" t="s">
-        <v>188</v>
+      <c r="N88" s="31"/>
+      <c r="O88" s="70" t="s">
+        <v>186</v>
       </c>
       <c r="R88"/>
       <c r="S88"/>
@@ -4883,15 +4883,15 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="62"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="70"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -4906,15 +4906,15 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="62"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="70"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E91"/>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -4944,17 +4944,17 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="47"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="33"/>
+      <c r="F93" s="40"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4972,8 +4972,8 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="32"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="45"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4993,10 +4993,10 @@
       <c r="D95" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="F95" s="52"/>
+      <c r="E95" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F95" s="47"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -5008,23 +5008,23 @@
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="47"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="33" t="s">
+      <c r="E98" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="33"/>
+      <c r="F98" s="40"/>
       <c r="P98" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.15">
@@ -5035,8 +5035,8 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B100" s="25" t="s">
@@ -5048,42 +5048,42 @@
       <c r="D100" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="F100" s="32"/>
+      <c r="E100" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" s="45"/>
       <c r="H100" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P101" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="47" t="s">
+      <c r="B104" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="47"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="33"/>
-      <c r="G104" s="30" t="s">
+      <c r="F104" s="40"/>
+      <c r="G104" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -5096,14 +5096,14 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="80" t="s">
+      <c r="E105" s="44"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="81"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="34"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -5118,14 +5118,14 @@
       <c r="D106" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="F106" s="52"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="85"/>
+      <c r="E106" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F106" s="47"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="37"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -5138,28 +5138,28 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="47"/>
+      <c r="C110" s="39"/>
       <c r="D110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E110" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="30" t="s">
+      <c r="F110" s="40"/>
+      <c r="G110" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
@@ -5169,8 +5169,8 @@
         <v>11</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="65"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="51"/>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
@@ -5197,10 +5197,10 @@
       <c r="D112" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F112" s="67"/>
+      <c r="E112" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F112" s="69"/>
       <c r="G112" s="3" t="s">
         <v>159</v>
       </c>
@@ -5218,26 +5218,26 @@
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G113" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="H113" s="63" t="s">
+      <c r="G113" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H113" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="I113" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="J113" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="K113" s="45"/>
+      <c r="I113" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="K113" s="31"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
@@ -5245,21 +5245,21 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="47" t="s">
+      <c r="B117" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="47"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E117" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H117" s="30"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H117" s="43"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -5272,10 +5272,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="32"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="45"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="25" t="s">
@@ -5285,53 +5285,53 @@
         <v>118</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E119" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="F119" s="52"/>
-      <c r="G119" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="H119" s="45"/>
+        <v>169</v>
+      </c>
+      <c r="E119" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F119" s="47"/>
+      <c r="G119" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H119" s="31"/>
     </row>
     <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="H120" s="66"/>
+      <c r="G120" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H120" s="48"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="47" t="s">
+      <c r="B124" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="47"/>
+      <c r="C124" s="39"/>
       <c r="D124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="33"/>
-      <c r="G124" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H124" s="30"/>
-      <c r="I124" s="30"/>
-      <c r="J124" s="30"/>
-      <c r="K124" s="30"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="30"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
@@ -5341,28 +5341,28 @@
         <v>11</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="65"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="51"/>
       <c r="G125" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I125" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="L125" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K125" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="M125" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.15">
@@ -5373,85 +5373,85 @@
         <v>118</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E126" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="F126" s="67"/>
+        <v>192</v>
+      </c>
+      <c r="E126" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F126" s="69"/>
       <c r="G126" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="J126" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="L126" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="M126" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="G127" s="53"/>
+      <c r="H127" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I127" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J127" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K127" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="K126" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G127" s="63"/>
-      <c r="H127" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="I127" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="J127" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="K127" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="L127" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="M127" s="68" t="s">
-        <v>191</v>
+      <c r="L127" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="M127" s="67" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="69"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="68"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B131" s="47" t="s">
+      <c r="B131" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="47"/>
+      <c r="C131" s="39"/>
       <c r="D131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="33" t="s">
+      <c r="E131" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H131" s="30"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H131" s="43"/>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
@@ -5461,12 +5461,12 @@
         <v>11</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="32"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="45"/>
       <c r="P132" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.15">
@@ -5477,51 +5477,51 @@
         <v>118</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E133" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="F133" s="52"/>
-      <c r="G133" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="H133" s="45"/>
+        <v>193</v>
+      </c>
+      <c r="E133" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" s="47"/>
+      <c r="G133" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G134" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="H134" s="66"/>
+      <c r="G134" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H134" s="48"/>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G135" s="66"/>
-      <c r="H135" s="66"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
       <c r="P135" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B138" s="47" t="s">
+      <c r="B138" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="47"/>
+      <c r="C138" s="39"/>
       <c r="D138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="33"/>
-      <c r="G138" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H138" s="30"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H138" s="43"/>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B139" s="3" t="s">
@@ -5531,10 +5531,10 @@
         <v>11</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="32"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="45"/>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B140" s="25" t="s">
@@ -5544,26 +5544,26 @@
         <v>118</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E140" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="F140" s="52"/>
-      <c r="G140" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H140" s="45"/>
+        <v>194</v>
+      </c>
+      <c r="E140" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F140" s="47"/>
+      <c r="G140" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H140" s="31"/>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G141" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="H141" s="66"/>
+      <c r="G141" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H141" s="48"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
@@ -5571,24 +5571,24 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B145" s="47" t="s">
+      <c r="B145" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="47"/>
+      <c r="C145" s="39"/>
       <c r="D145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="33" t="s">
+      <c r="E145" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="33"/>
-      <c r="G145" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
+      <c r="K145" s="43"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
@@ -5598,21 +5598,21 @@
         <v>11</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
       <c r="G146" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H146" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="I146" s="45"/>
-      <c r="J146" s="45"/>
-      <c r="K146" s="45"/>
+        <v>196</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B147" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C147" s="25" t="s">
         <v>118</v>
@@ -5620,60 +5620,60 @@
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="F147" s="45"/>
+      <c r="E147" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" s="31"/>
       <c r="G147" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="31"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G148" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="H148" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="H147" s="45"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
-      <c r="K147" s="45"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G148" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="H148" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="I148" s="72"/>
-      <c r="J148" s="72"/>
-      <c r="K148" s="72"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="66"/>
+      <c r="K148" s="66"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="72"/>
-      <c r="H149" s="72"/>
-      <c r="I149" s="72"/>
-      <c r="J149" s="72"/>
-      <c r="K149" s="72"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="66"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="47" t="s">
+      <c r="B152" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="47"/>
+      <c r="C152" s="39"/>
       <c r="D152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="33"/>
-      <c r="G152" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
-      <c r="J152" s="30"/>
-      <c r="K152" s="30"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B153" s="3" t="s">
@@ -5683,21 +5683,21 @@
         <v>11</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H153" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
+        <v>196</v>
+      </c>
+      <c r="H153" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B154" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>118</v>
@@ -5705,35 +5705,35 @@
       <c r="D154" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="F154" s="45"/>
+      <c r="E154" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="F154" s="31"/>
       <c r="G154" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="H154" s="45"/>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45"/>
-      <c r="K154" s="45"/>
+        <v>197</v>
+      </c>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G155" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="H155" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="I155" s="72"/>
-      <c r="J155" s="72"/>
-      <c r="K155" s="72"/>
+      <c r="G155" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="H155" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="I155" s="66"/>
+      <c r="J155" s="66"/>
+      <c r="K155" s="66"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G156" s="72"/>
-      <c r="H156" s="72"/>
-      <c r="I156" s="72"/>
-      <c r="J156" s="72"/>
-      <c r="K156" s="72"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="66"/>
+      <c r="J156" s="66"/>
+      <c r="K156" s="66"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
@@ -5741,17 +5741,17 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="47" t="s">
+      <c r="B159" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="47"/>
+      <c r="C159" s="39"/>
       <c r="D159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="33" t="s">
+      <c r="E159" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="33"/>
+      <c r="F159" s="40"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B160" s="3" t="s">
@@ -5761,8 +5761,8 @@
         <v>11</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="32"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="45"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="25" t="s">
@@ -5772,12 +5772,12 @@
         <v>118</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E161" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="F161" s="52"/>
+        <v>202</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="F161" s="47"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163"/>
@@ -5835,7 +5835,7 @@
       <c r="L166"/>
       <c r="M166"/>
       <c r="P166" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.15">
@@ -5880,7 +5880,7 @@
       <c r="L169"/>
       <c r="M169"/>
       <c r="P169" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.15">
@@ -5903,26 +5903,26 @@
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B172" s="73" t="s">
+      <c r="B172" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="74"/>
+      <c r="C172" s="56"/>
       <c r="D172" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="75" t="s">
+      <c r="E172" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="76"/>
-      <c r="G172" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="49"/>
-      <c r="K172" s="49"/>
-      <c r="L172" s="49"/>
-      <c r="M172" s="50"/>
+      <c r="F172" s="58"/>
+      <c r="G172" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H172" s="60"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="60"/>
+      <c r="L172" s="60"/>
+      <c r="M172" s="61"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B173" s="3" t="s">
@@ -5932,22 +5932,22 @@
         <v>11</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="H173" s="32"/>
-      <c r="I173" s="31" t="s">
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H173" s="45"/>
+      <c r="I173" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="J173" s="45"/>
+      <c r="K173" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="L173" s="45"/>
+      <c r="M173" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="J173" s="32"/>
-      <c r="K173" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="L173" s="32"/>
-      <c r="M173" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="174" spans="2:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -5958,82 +5958,82 @@
         <v>118</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="F174" s="32"/>
-      <c r="G174" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="H174" s="32"/>
-      <c r="I174" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="J174" s="32"/>
-      <c r="K174" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="L174" s="32"/>
+        <v>281</v>
+      </c>
+      <c r="E174" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F174" s="45"/>
+      <c r="G174" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="H174" s="45"/>
+      <c r="I174" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J174" s="45"/>
+      <c r="K174" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" s="45"/>
       <c r="M174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B178" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C178" s="65"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="65"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="32"/>
-      <c r="I178" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="J178" s="45"/>
-      <c r="K178" s="45"/>
-      <c r="L178" s="45"/>
-      <c r="M178" s="45"/>
-      <c r="N178" s="45"/>
+      <c r="B178" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="45"/>
+      <c r="I178" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J178" s="31"/>
+      <c r="K178" s="31"/>
+      <c r="L178" s="31"/>
+      <c r="M178" s="31"/>
+      <c r="N178" s="31"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M179" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N179" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="N179" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.15">
@@ -6044,7 +6044,7 @@
         <v>122</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>124</v>
@@ -6053,48 +6053,48 @@
         <v>141</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I180" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="I180" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="J180" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="K180" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="L180" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="J180" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="K180" s="77" t="s">
+      <c r="M180" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="N180" s="49" t="s">
         <v>231</v>
-      </c>
-      <c r="L180" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="M180" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="N180" s="77" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B181" s="3"/>
       <c r="C181" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I181" s="55"/>
-      <c r="J181" s="78"/>
-      <c r="K181" s="78"/>
-      <c r="L181" s="78"/>
-      <c r="M181" s="78"/>
-      <c r="N181" s="78"/>
+        <v>284</v>
+      </c>
+      <c r="I181" s="63"/>
+      <c r="J181" s="50"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="50"/>
+      <c r="M181" s="50"/>
+      <c r="N181" s="50"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
@@ -6102,26 +6102,26 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B184" s="73" t="s">
+      <c r="B184" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="74"/>
+      <c r="C184" s="56"/>
       <c r="D184" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="75" t="s">
+      <c r="E184" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="76"/>
-      <c r="G184" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="H184" s="49"/>
-      <c r="I184" s="49"/>
-      <c r="J184" s="49"/>
-      <c r="K184" s="49"/>
-      <c r="L184" s="49"/>
-      <c r="M184" s="50"/>
+      <c r="F184" s="58"/>
+      <c r="G184" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H184" s="60"/>
+      <c r="I184" s="60"/>
+      <c r="J184" s="60"/>
+      <c r="K184" s="60"/>
+      <c r="L184" s="60"/>
+      <c r="M184" s="61"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
@@ -6131,100 +6131,100 @@
         <v>11</v>
       </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="31"/>
-      <c r="F185" s="32"/>
-      <c r="G185" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="H185" s="32"/>
-      <c r="I185" s="31" t="s">
+      <c r="E185" s="44"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H185" s="45"/>
+      <c r="I185" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="J185" s="45"/>
+      <c r="K185" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="L185" s="45"/>
+      <c r="M185" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="J185" s="32"/>
-      <c r="K185" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="L185" s="32"/>
-      <c r="M185" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="186" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B186" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="F186" s="32"/>
-      <c r="G186" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="H186" s="32"/>
-      <c r="I186" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="E186" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F186" s="45"/>
+      <c r="G186" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="J186" s="32"/>
-      <c r="K186" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="L186" s="32"/>
+      <c r="H186" s="45"/>
+      <c r="I186" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="J186" s="45"/>
+      <c r="K186" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="L186" s="45"/>
       <c r="M186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B190" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C190" s="65"/>
-      <c r="D190" s="65"/>
-      <c r="E190" s="65"/>
-      <c r="F190" s="65"/>
-      <c r="G190" s="32"/>
-      <c r="I190" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="J190" s="65"/>
-      <c r="K190" s="65"/>
-      <c r="L190" s="65"/>
-      <c r="M190" s="32"/>
+      <c r="B190" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
+      <c r="F190" s="51"/>
+      <c r="G190" s="45"/>
+      <c r="I190" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="J190" s="51"/>
+      <c r="K190" s="51"/>
+      <c r="L190" s="51"/>
+      <c r="M190" s="45"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B191" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F191" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F191" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="G191" s="45"/>
+      <c r="I191" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="G191" s="32"/>
-      <c r="I191" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="J191" s="32"/>
+      <c r="J191" s="45"/>
       <c r="K191" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L191" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="M191" s="32"/>
+        <v>225</v>
+      </c>
+      <c r="L191" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="M191" s="45"/>
       <c r="N191"/>
     </row>
     <row r="192" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6235,53 +6235,53 @@
         <v>122</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F192" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="G192" s="32"/>
-      <c r="I192" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="J192" s="79"/>
+      <c r="F192" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="G192" s="45"/>
+      <c r="I192" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="J192" s="52"/>
       <c r="K192" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="L192" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="M192" s="81"/>
+        <v>175</v>
+      </c>
+      <c r="L192" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M192" s="34"/>
       <c r="N192"/>
       <c r="O192"/>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F193" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="G193" s="32"/>
-      <c r="I193" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="J193" s="66"/>
-      <c r="K193" s="45"/>
-      <c r="L193" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="M193" s="64"/>
+        <v>222</v>
+      </c>
+      <c r="F193" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G193" s="45"/>
+      <c r="I193" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="J193" s="48"/>
+      <c r="K193" s="31"/>
+      <c r="L193" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M193" s="54"/>
       <c r="N193"/>
       <c r="O193"/>
     </row>
@@ -6293,11 +6293,11 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
-      <c r="I194" s="66"/>
-      <c r="J194" s="66"/>
-      <c r="K194" s="45"/>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
+      <c r="I194" s="48"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="31"/>
+      <c r="L194" s="54"/>
+      <c r="M194" s="54"/>
       <c r="N194"/>
       <c r="O194"/>
     </row>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B196" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I196"/>
       <c r="J196"/>
@@ -6330,21 +6330,21 @@
       <c r="O196"/>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B197" s="47" t="s">
+      <c r="B197" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="47"/>
+      <c r="C197" s="39"/>
       <c r="D197" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="33" t="s">
+      <c r="E197" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F197" s="33"/>
-      <c r="G197" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H197" s="30"/>
+      <c r="F197" s="40"/>
+      <c r="G197" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H197" s="43"/>
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
@@ -6361,10 +6361,10 @@
         <v>11</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="32"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="45"/>
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
@@ -6375,22 +6375,22 @@
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B199" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C199" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E199" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="F199" s="52"/>
-      <c r="G199" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="H199" s="45"/>
+        <v>247</v>
+      </c>
+      <c r="E199" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="F199" s="47"/>
+      <c r="G199" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H199" s="31"/>
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
@@ -6399,14 +6399,14 @@
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G200" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="H200" s="66"/>
+      <c r="G200" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="H200" s="48"/>
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
@@ -6416,8 +6416,8 @@
       <c r="O200"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G201" s="66"/>
-      <c r="H201" s="66"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
@@ -6442,7 +6442,7 @@
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.15">
@@ -6463,7 +6463,7 @@
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B204" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G204"/>
       <c r="H204"/>
@@ -6476,17 +6476,17 @@
       <c r="O204"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B205" s="47" t="s">
+      <c r="B205" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="47"/>
+      <c r="C205" s="39"/>
       <c r="D205" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E205" s="33" t="s">
+      <c r="E205" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F205" s="33"/>
+      <c r="F205" s="40"/>
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -6505,8 +6505,8 @@
         <v>11</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="31"/>
-      <c r="F206" s="32"/>
+      <c r="E206" s="44"/>
+      <c r="F206" s="45"/>
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -6525,12 +6525,12 @@
         <v>118</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E207" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="F207" s="52"/>
+        <v>250</v>
+      </c>
+      <c r="E207" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F207" s="47"/>
       <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -6543,21 +6543,21 @@
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B209" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B210" s="47" t="s">
+      <c r="B210" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="47"/>
+      <c r="C210" s="39"/>
       <c r="D210" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="33" t="s">
+      <c r="E210" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="33"/>
+      <c r="F210" s="40"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B211" s="3" t="s">
@@ -6567,8 +6567,8 @@
         <v>11</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="31"/>
-      <c r="F211" s="32"/>
+      <c r="E211" s="44"/>
+      <c r="F211" s="45"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B212" s="25" t="s">
@@ -6578,12 +6578,12 @@
         <v>118</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E212" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="F212" s="52"/>
+        <v>251</v>
+      </c>
+      <c r="E212" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F212" s="47"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
@@ -6591,17 +6591,17 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="47" t="s">
+      <c r="B215" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="47"/>
+      <c r="C215" s="39"/>
       <c r="D215" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E215" s="33" t="s">
+      <c r="E215" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F215" s="33"/>
+      <c r="F215" s="40"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B216" s="3" t="s">
@@ -6611,8 +6611,8 @@
         <v>11</v>
       </c>
       <c r="D216" s="3"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="32"/>
+      <c r="E216" s="44"/>
+      <c r="F216" s="45"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B217" s="25" t="s">
@@ -6624,36 +6624,36 @@
       <c r="D217" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="F217" s="52"/>
+      <c r="E217" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F217" s="47"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B219" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B220" s="47" t="s">
+      <c r="B220" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="47"/>
+      <c r="C220" s="39"/>
       <c r="D220" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="33" t="s">
+      <c r="E220" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F220" s="33"/>
-      <c r="G220" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="H220" s="30"/>
-      <c r="I220" s="30"/>
-      <c r="J220" s="30"/>
-      <c r="K220" s="30"/>
-      <c r="L220" s="30"/>
+      <c r="F220" s="40"/>
+      <c r="G220" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B221" s="3" t="s">
@@ -6663,47 +6663,47 @@
         <v>11</v>
       </c>
       <c r="D221" s="3"/>
-      <c r="E221" s="45"/>
-      <c r="F221" s="45"/>
-      <c r="G221" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="H221" s="45"/>
-      <c r="I221" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="J221" s="45"/>
-      <c r="K221" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="L221" s="45"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H221" s="31"/>
+      <c r="I221" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="J221" s="31"/>
+      <c r="K221" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L221" s="31"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B222" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C222" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="E222" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="F222" s="88"/>
-      <c r="G222" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="H222" s="45"/>
-      <c r="I222" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="J222" s="45"/>
-      <c r="K222" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="L222" s="45"/>
+      <c r="E222" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F222" s="42"/>
+      <c r="G222" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="H222" s="31"/>
+      <c r="I222" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J222" s="31"/>
+      <c r="K222" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L222" s="31"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G223"/>
@@ -6711,16 +6711,228 @@
     </row>
     <row r="233" spans="16:16" x14ac:dyDescent="0.15">
       <c r="P233" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="236" spans="16:16" x14ac:dyDescent="0.15">
       <c r="P236" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="236">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B39:L40"/>
+    <mergeCell ref="B53:L54"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H135"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K149"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:K156"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="I178:N178"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="N180:N181"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="I190:M190"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M194"/>
+    <mergeCell ref="I193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
     <mergeCell ref="G221:H221"/>
     <mergeCell ref="I221:J221"/>
     <mergeCell ref="K221:L221"/>
@@ -6745,218 +6957,6 @@
     <mergeCell ref="E205:F205"/>
     <mergeCell ref="E206:F206"/>
     <mergeCell ref="E207:F207"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="N180:N181"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="I190:M190"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M194"/>
-    <mergeCell ref="I193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="I178:N178"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K149"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:K156"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H142"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H135"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H121"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B39:L40"/>
-    <mergeCell ref="B53:L54"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/协议说明.xlsx
+++ b/doc/协议说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="0" windowWidth="20880" windowHeight="8595"/>
+    <workbookView xWindow="6975" yWindow="0" windowWidth="20880" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="323">
   <si>
     <t>L1Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,10 +1017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SportData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从0点开始的刻钟数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1058,10 +1054,6 @@
   </si>
   <si>
     <t>4bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1502,6 +1494,22 @@
   </si>
   <si>
     <t>单位kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SportData（8byte）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepData (4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value（4+N*4byte）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+N*4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1931,18 +1939,165 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1955,157 +2110,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3126,15 +3134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>271096</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>439615</xdr:colOff>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3142,9 +3150,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5942135" y="34048212"/>
-          <a:ext cx="58615" cy="725365"/>
+        <a:xfrm flipH="1">
+          <a:off x="5832231" y="34048212"/>
+          <a:ext cx="109905" cy="740019"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3493,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P192" sqref="P192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3505,18 +3513,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="N2" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O2" s="30"/>
     </row>
@@ -3568,37 +3576,37 @@
       <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="45"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="39" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="48"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="43"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -3607,18 +3615,18 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="45"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3626,10 +3634,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="45"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -3654,15 +3662,15 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="31" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="H9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="46"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
@@ -3676,10 +3684,10 @@
       <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="81"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
@@ -3698,18 +3706,18 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="N12" s="81"/>
+      <c r="M12" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="N12" s="45"/>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3731,10 +3739,10 @@
       <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="N13" s="81"/>
+      <c r="M13" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="N13" s="45"/>
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3756,10 +3764,10 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="N14" s="81"/>
+      <c r="M14" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="N14" s="45"/>
       <c r="O14" s="7" t="s">
         <v>60</v>
       </c>
@@ -3769,10 +3777,10 @@
       <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="N15" s="81"/>
+      <c r="M15" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="N15" s="45"/>
       <c r="O15" s="7" t="s">
         <v>57</v>
       </c>
@@ -3782,10 +3790,10 @@
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="N16" s="81"/>
+      <c r="M16" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="N16" s="45"/>
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
@@ -3795,10 +3803,10 @@
       <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="N17" s="81"/>
+      <c r="M17" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="N17" s="45"/>
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
@@ -3810,10 +3818,10 @@
       <c r="L18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="N18" s="81"/>
+      <c r="M18" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="N18" s="45"/>
       <c r="O18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3829,10 +3837,10 @@
       <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="80" t="s">
+      <c r="M19" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="81"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3848,10 +3856,10 @@
       <c r="L20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="N20" s="81"/>
+      <c r="M20" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="N20" s="45"/>
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3879,10 +3887,10 @@
       <c r="L22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="88"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3916,26 +3924,26 @@
       <c r="L23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="88"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="P24" s="11"/>
@@ -3947,25 +3955,25 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="44" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="45"/>
+      <c r="I25" s="33"/>
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="82" t="s">
+      <c r="M25" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="83"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3978,10 +3986,10 @@
       <c r="L26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="82" t="s">
+      <c r="M26" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="83"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3991,31 +3999,31 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="N27" s="83"/>
+      <c r="M27" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="N27" s="36"/>
       <c r="O27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D28" s="44">
+      <c r="D28" s="32">
         <v>0</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="H28" s="44" t="s">
+      <c r="E28" s="33"/>
+      <c r="H28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="45"/>
+      <c r="I28" s="33"/>
       <c r="L28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="82" t="s">
+      <c r="M28" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="83"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="17" t="s">
         <v>57</v>
       </c>
@@ -4025,10 +4033,10 @@
       <c r="L29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="82" t="s">
+      <c r="M29" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="83"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="17" t="s">
         <v>58</v>
       </c>
@@ -4044,10 +4052,10 @@
       <c r="L30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="N30" s="83"/>
+      <c r="M30" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="N30" s="36"/>
       <c r="O30" s="17" t="s">
         <v>58</v>
       </c>
@@ -4066,17 +4074,17 @@
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="32">
         <v>0</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="33"/>
       <c r="L31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="82" t="s">
+      <c r="M31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="83"/>
+      <c r="N31" s="36"/>
       <c r="O31" s="17" t="s">
         <v>57</v>
       </c>
@@ -4098,10 +4106,10 @@
       <c r="L32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="82" t="s">
+      <c r="M32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="83"/>
+      <c r="N32" s="36"/>
       <c r="O32" s="17" t="s">
         <v>58</v>
       </c>
@@ -4126,17 +4134,17 @@
         <v>112</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="19"/>
@@ -4146,35 +4154,35 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -4227,10 +4235,10 @@
         <v>72</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
@@ -4246,7 +4254,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
@@ -4254,10 +4262,10 @@
         <v>72</v>
       </c>
       <c r="C49" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
@@ -4265,10 +4273,10 @@
         <v>71</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
@@ -4283,32 +4291,32 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
@@ -4397,7 +4405,7 @@
         <v>111</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
@@ -4424,22 +4432,22 @@
         <v>110</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D70" s="78" t="s">
+      <c r="D70" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71"/>
@@ -4449,13 +4457,13 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
+      <c r="J71" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="87"/>
+      <c r="N71" s="87"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
@@ -4467,26 +4475,26 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="39"/>
+      <c r="C73" s="48"/>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="59" t="s">
+      <c r="F73" s="34"/>
+      <c r="G73" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="61"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
@@ -4496,12 +4504,12 @@
         <v>11</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="44" t="s">
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="45"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4528,14 +4536,14 @@
       <c r="D75" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="F75" s="47"/>
-      <c r="G75" s="44" t="s">
+      <c r="E75" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="45"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="3" t="s">
         <v>123</v>
       </c>
@@ -4558,23 +4566,23 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="71" t="s">
+      <c r="G76" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="72"/>
-      <c r="I76" s="62" t="s">
+      <c r="H76" s="59"/>
+      <c r="I76" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="62" t="s">
+      <c r="J76" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="K76" s="62" t="s">
+      <c r="K76" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="L76" s="62" t="s">
+      <c r="L76" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="M76" s="62" t="s">
+      <c r="M76" s="55" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4584,13 +4592,13 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B78"/>
@@ -4598,13 +4606,13 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79"/>
@@ -4620,7 +4628,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -4633,26 +4641,26 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="39"/>
+      <c r="C81" s="48"/>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="59" t="s">
+      <c r="F81" s="34"/>
+      <c r="G81" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="61"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="51"/>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
@@ -4662,20 +4670,20 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="31" t="s">
+      <c r="E82" s="32"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31" t="s">
+      <c r="H82" s="46"/>
+      <c r="I82" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31" t="s">
+      <c r="J82" s="46"/>
+      <c r="K82" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="L82" s="31"/>
+      <c r="L82" s="46"/>
       <c r="M82" s="8" t="s">
         <v>152</v>
       </c>
@@ -4690,22 +4698,22 @@
       <c r="D83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="F83" s="45"/>
-      <c r="G83" s="31" t="s">
+      <c r="E83" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31" t="s">
+      <c r="H83" s="46"/>
+      <c r="I83" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31" t="s">
+      <c r="J83" s="46"/>
+      <c r="K83" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="L83" s="31"/>
+      <c r="L83" s="46"/>
       <c r="M83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4740,17 +4748,17 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -4768,10 +4776,10 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="44" t="s">
+      <c r="G86" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="45"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="3" t="s">
         <v>15</v>
       </c>
@@ -4807,10 +4815,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="44" t="s">
+      <c r="G87" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="45"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="3" t="s">
         <v>123</v>
       </c>
@@ -4846,27 +4854,27 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="71" t="s">
+      <c r="G88" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="72"/>
-      <c r="I88" s="62" t="s">
+      <c r="H88" s="59"/>
+      <c r="I88" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="62" t="s">
+      <c r="J88" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="62" t="s">
+      <c r="K88" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="L88" s="62" t="s">
+      <c r="L88" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="62" t="s">
+      <c r="M88" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="N88" s="31"/>
-      <c r="O88" s="70" t="s">
+      <c r="N88" s="46"/>
+      <c r="O88" s="64" t="s">
         <v>186</v>
       </c>
       <c r="R88"/>
@@ -4883,15 +4891,15 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="70"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="64"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -4906,15 +4914,15 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="70"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
+      <c r="L90" s="57"/>
+      <c r="M90" s="57"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="64"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E91"/>
@@ -4930,7 +4938,7 @@
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -4944,17 +4952,17 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="40"/>
+      <c r="F93" s="34"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4972,8 +4980,8 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="45"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="33"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4993,10 +5001,10 @@
       <c r="D95" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="F95" s="47"/>
+      <c r="E95" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F95" s="53"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -5008,23 +5016,23 @@
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="39"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="40"/>
+      <c r="F98" s="34"/>
       <c r="P98" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.15">
@@ -5035,8 +5043,8 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="45"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B100" s="25" t="s">
@@ -5048,42 +5056,42 @@
       <c r="D100" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="F100" s="45"/>
+      <c r="E100" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="33"/>
       <c r="H100" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P101" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="39"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="40"/>
-      <c r="G104" s="43" t="s">
+      <c r="F104" s="34"/>
+      <c r="G104" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -5096,14 +5104,14 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="32" t="s">
+      <c r="E105" s="32"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="34"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="83"/>
+      <c r="J105" s="82"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -5118,14 +5126,14 @@
       <c r="D106" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F106" s="47"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="37"/>
+      <c r="E106" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="F106" s="53"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="86"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -5138,28 +5146,28 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="39"/>
+      <c r="C110" s="48"/>
       <c r="D110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="40"/>
-      <c r="G110" s="43" t="s">
+      <c r="F110" s="34"/>
+      <c r="G110" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
@@ -5169,8 +5177,8 @@
         <v>11</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="51"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="66"/>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
@@ -5197,10 +5205,10 @@
       <c r="D112" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="F112" s="69"/>
+      <c r="E112" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F112" s="68"/>
       <c r="G112" s="3" t="s">
         <v>159</v>
       </c>
@@ -5218,26 +5226,26 @@
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G113" s="53" t="s">
+      <c r="G113" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="H113" s="53" t="s">
+      <c r="H113" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="I113" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="J113" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="K113" s="31"/>
+      <c r="I113" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="J113" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="K113" s="46"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
@@ -5245,21 +5253,21 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="39"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="40"/>
-      <c r="G117" s="43" t="s">
+      <c r="F117" s="34"/>
+      <c r="G117" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="H117" s="43"/>
+      <c r="H117" s="31"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -5272,10 +5280,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="45"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="33"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="25" t="s">
@@ -5287,51 +5295,51 @@
       <c r="D119" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E119" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="31" t="s">
+      <c r="E119" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="F119" s="53"/>
+      <c r="G119" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="H119" s="31"/>
+      <c r="H119" s="46"/>
     </row>
     <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="48" t="s">
+      <c r="G120" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="H120" s="48"/>
+      <c r="H120" s="67"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="39"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="40"/>
-      <c r="G124" s="43" t="s">
+      <c r="F124" s="34"/>
+      <c r="G124" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
@@ -5341,8 +5349,8 @@
         <v>11</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="51"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="66"/>
       <c r="G125" s="3" t="s">
         <v>167</v>
       </c>
@@ -5375,10 +5383,10 @@
       <c r="D126" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E126" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="F126" s="69"/>
+      <c r="E126" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" s="68"/>
       <c r="G126" s="3" t="s">
         <v>175</v>
       </c>
@@ -5402,56 +5410,56 @@
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G127" s="53"/>
-      <c r="H127" s="53" t="s">
+      <c r="G127" s="54"/>
+      <c r="H127" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="I127" s="31" t="s">
+      <c r="I127" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="J127" s="31" t="s">
+      <c r="J127" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="K127" s="48" t="s">
+      <c r="K127" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="L127" s="48" t="s">
+      <c r="L127" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="M127" s="67" t="s">
+      <c r="M127" s="69" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="68"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="46"/>
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
+      <c r="M128" s="70"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="39"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="40" t="s">
+      <c r="E131" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="40"/>
-      <c r="G131" s="43" t="s">
+      <c r="F131" s="34"/>
+      <c r="G131" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="H131" s="43"/>
+      <c r="H131" s="31"/>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
@@ -5461,12 +5469,12 @@
         <v>11</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="45"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="33"/>
       <c r="P132" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.15">
@@ -5479,49 +5487,49 @@
       <c r="D133" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E133" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F133" s="47"/>
-      <c r="G133" s="31" t="s">
+      <c r="E133" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F133" s="53"/>
+      <c r="G133" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="H133" s="31"/>
+      <c r="H133" s="46"/>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G134" s="48" t="s">
+      <c r="G134" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="H134" s="48"/>
+      <c r="H134" s="67"/>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
       <c r="P135" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="39"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="40" t="s">
+      <c r="E138" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="40"/>
-      <c r="G138" s="43" t="s">
+      <c r="F138" s="34"/>
+      <c r="G138" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="H138" s="43"/>
+      <c r="H138" s="31"/>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B139" s="3" t="s">
@@ -5531,10 +5539,10 @@
         <v>11</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="45"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="33"/>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B140" s="25" t="s">
@@ -5546,24 +5554,24 @@
       <c r="D140" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E140" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F140" s="47"/>
-      <c r="G140" s="31" t="s">
+      <c r="E140" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="F140" s="53"/>
+      <c r="G140" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="H140" s="31"/>
+      <c r="H140" s="46"/>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G141" s="48" t="s">
+      <c r="G141" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="H141" s="48"/>
+      <c r="H141" s="67"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G142" s="48"/>
-      <c r="H142" s="48"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
@@ -5571,24 +5579,24 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="39"/>
+      <c r="C145" s="48"/>
       <c r="D145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="40" t="s">
+      <c r="E145" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="40"/>
-      <c r="G145" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="H145" s="43"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="43"/>
-      <c r="K145" s="43"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="31"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
@@ -5598,17 +5606,17 @@
         <v>11</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
       <c r="G146" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H146" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="31"/>
+      <c r="H146" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="I146" s="46"/>
+      <c r="J146" s="46"/>
+      <c r="K146" s="46"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B147" s="25" t="s">
@@ -5620,60 +5628,60 @@
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="F147" s="31"/>
+      <c r="E147" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" s="46"/>
       <c r="G147" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="46"/>
+      <c r="J147" s="46"/>
+      <c r="K147" s="46"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G148" s="65" t="s">
+      <c r="G148" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="H148" s="65" t="s">
+      <c r="H148" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="I148" s="66"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="66"/>
+      <c r="I148" s="73"/>
+      <c r="J148" s="73"/>
+      <c r="K148" s="73"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="66"/>
+      <c r="G149" s="73"/>
+      <c r="H149" s="73"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="73"/>
+      <c r="K149" s="73"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="39"/>
+      <c r="C152" s="48"/>
       <c r="D152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="40" t="s">
+      <c r="E152" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="40"/>
-      <c r="G152" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
-      <c r="K152" s="43"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="31"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B153" s="3" t="s">
@@ -5683,17 +5691,17 @@
         <v>11</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
+      <c r="E153" s="46"/>
+      <c r="F153" s="46"/>
       <c r="G153" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H153" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="31"/>
+      <c r="H153" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="I153" s="46"/>
+      <c r="J153" s="46"/>
+      <c r="K153" s="46"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B154" s="25" t="s">
@@ -5705,35 +5713,35 @@
       <c r="D154" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="F154" s="31"/>
+      <c r="E154" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F154" s="46"/>
       <c r="G154" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="31"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="46"/>
+      <c r="J154" s="46"/>
+      <c r="K154" s="46"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G155" s="65" t="s">
+      <c r="G155" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="H155" s="65" t="s">
+      <c r="H155" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="I155" s="66"/>
-      <c r="J155" s="66"/>
-      <c r="K155" s="66"/>
+      <c r="I155" s="73"/>
+      <c r="J155" s="73"/>
+      <c r="K155" s="73"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="66"/>
-      <c r="K156" s="66"/>
+      <c r="G156" s="73"/>
+      <c r="H156" s="73"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="73"/>
+      <c r="K156" s="73"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
@@ -5741,17 +5749,17 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="39"/>
+      <c r="C159" s="48"/>
       <c r="D159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="40" t="s">
+      <c r="E159" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="40"/>
+      <c r="F159" s="34"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B160" s="3" t="s">
@@ -5761,8 +5769,8 @@
         <v>11</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="45"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="33"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="25" t="s">
@@ -5774,10 +5782,10 @@
       <c r="D161" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E161" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="F161" s="47"/>
+      <c r="E161" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="F161" s="53"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163"/>
@@ -5835,7 +5843,7 @@
       <c r="L166"/>
       <c r="M166"/>
       <c r="P166" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.15">
@@ -5880,7 +5888,7 @@
       <c r="L169"/>
       <c r="M169"/>
       <c r="P169" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.15">
@@ -5903,26 +5911,26 @@
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B172" s="55" t="s">
+      <c r="B172" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="56"/>
+      <c r="C172" s="77"/>
       <c r="D172" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="57" t="s">
+      <c r="E172" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="58"/>
-      <c r="G172" s="59" t="s">
+      <c r="F172" s="79"/>
+      <c r="G172" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="H172" s="60"/>
-      <c r="I172" s="60"/>
-      <c r="J172" s="60"/>
-      <c r="K172" s="60"/>
-      <c r="L172" s="60"/>
-      <c r="M172" s="61"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
+      <c r="M172" s="51"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B173" s="3" t="s">
@@ -5932,20 +5940,20 @@
         <v>11</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="44" t="s">
+      <c r="E173" s="32"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="H173" s="45"/>
-      <c r="I173" s="44" t="s">
+      <c r="H173" s="33"/>
+      <c r="I173" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="J173" s="45"/>
-      <c r="K173" s="44" t="s">
+      <c r="J173" s="33"/>
+      <c r="K173" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="L173" s="45"/>
+      <c r="L173" s="33"/>
       <c r="M173" s="8" t="s">
         <v>212</v>
       </c>
@@ -5958,45 +5966,45 @@
         <v>118</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E174" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F174" s="45"/>
-      <c r="G174" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F174" s="33"/>
+      <c r="G174" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="H174" s="45"/>
-      <c r="I174" s="44" t="s">
+      <c r="H174" s="33"/>
+      <c r="I174" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="J174" s="45"/>
-      <c r="K174" s="44" t="s">
+      <c r="J174" s="33"/>
+      <c r="K174" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="L174" s="45"/>
+      <c r="L174" s="33"/>
       <c r="M174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B178" s="44" t="s">
+      <c r="B178" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
-      <c r="F178" s="51"/>
-      <c r="G178" s="45"/>
-      <c r="I178" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="31"/>
-      <c r="M178" s="31"/>
-      <c r="N178" s="31"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="66"/>
+      <c r="E178" s="66"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="33"/>
+      <c r="I178" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J178" s="46"/>
+      <c r="K178" s="46"/>
+      <c r="L178" s="46"/>
+      <c r="M178" s="46"/>
+      <c r="N178" s="46"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
@@ -6053,25 +6061,25 @@
         <v>141</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I180" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="I180" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="J180" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="K180" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="J180" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="K180" s="49" t="s">
+      <c r="L180" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="L180" s="49" t="s">
+      <c r="M180" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="N180" s="74" t="s">
         <v>230</v>
-      </c>
-      <c r="M180" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="N180" s="49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.15">
@@ -6087,14 +6095,14 @@
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="I181" s="63"/>
-      <c r="J181" s="50"/>
-      <c r="K181" s="50"/>
-      <c r="L181" s="50"/>
-      <c r="M181" s="50"/>
-      <c r="N181" s="50"/>
+        <v>282</v>
+      </c>
+      <c r="I181" s="57"/>
+      <c r="J181" s="75"/>
+      <c r="K181" s="75"/>
+      <c r="L181" s="75"/>
+      <c r="M181" s="75"/>
+      <c r="N181" s="75"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
@@ -6102,26 +6110,26 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B184" s="55" t="s">
+      <c r="B184" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="56"/>
+      <c r="C184" s="77"/>
       <c r="D184" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="57" t="s">
+      <c r="E184" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="58"/>
-      <c r="G184" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="H184" s="60"/>
-      <c r="I184" s="60"/>
-      <c r="J184" s="60"/>
-      <c r="K184" s="60"/>
-      <c r="L184" s="60"/>
-      <c r="M184" s="61"/>
+      <c r="F184" s="79"/>
+      <c r="G184" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="50"/>
+      <c r="M184" s="51"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
@@ -6131,70 +6139,70 @@
         <v>11</v>
       </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="44" t="s">
+      <c r="E185" s="32"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="H185" s="45"/>
-      <c r="I185" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="J185" s="45"/>
-      <c r="K185" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="L185" s="45"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J185" s="33"/>
+      <c r="K185" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L185" s="33"/>
       <c r="M185" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="186" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B186" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E186" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F186" s="45"/>
-      <c r="G186" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="H186" s="45"/>
-      <c r="I186" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="F186" s="33"/>
+      <c r="G186" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="J186" s="45"/>
-      <c r="K186" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="L186" s="45"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J186" s="33"/>
+      <c r="K186" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L186" s="33"/>
       <c r="M186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B190" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
-      <c r="F190" s="51"/>
-      <c r="G190" s="45"/>
-      <c r="I190" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="J190" s="51"/>
-      <c r="K190" s="51"/>
-      <c r="L190" s="51"/>
-      <c r="M190" s="45"/>
+      <c r="B190" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C190" s="66"/>
+      <c r="D190" s="66"/>
+      <c r="E190" s="66"/>
+      <c r="F190" s="66"/>
+      <c r="G190" s="33"/>
+      <c r="I190" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J190" s="66"/>
+      <c r="K190" s="66"/>
+      <c r="L190" s="66"/>
+      <c r="M190" s="33"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
@@ -6210,21 +6218,21 @@
       <c r="E191" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F191" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="G191" s="45"/>
-      <c r="I191" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="J191" s="45"/>
+      <c r="F191" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G191" s="33"/>
+      <c r="I191" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J191" s="33"/>
       <c r="K191" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L191" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="M191" s="45"/>
+      <c r="L191" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M191" s="33"/>
       <c r="N191"/>
     </row>
     <row r="192" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6240,21 +6248,21 @@
       <c r="E192" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F192" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="G192" s="45"/>
-      <c r="I192" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="J192" s="52"/>
+      <c r="F192" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G192" s="33"/>
+      <c r="I192" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="J192" s="80"/>
       <c r="K192" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="L192" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="M192" s="34"/>
+      <c r="L192" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="M192" s="82"/>
       <c r="N192"/>
       <c r="O192"/>
     </row>
@@ -6269,19 +6277,19 @@
       <c r="E193" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="F193" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="G193" s="45"/>
-      <c r="I193" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="J193" s="48"/>
-      <c r="K193" s="31"/>
-      <c r="L193" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="M193" s="54"/>
+      <c r="F193" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G193" s="33"/>
+      <c r="I193" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="J193" s="67"/>
+      <c r="K193" s="46"/>
+      <c r="L193" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="M193" s="65"/>
       <c r="N193"/>
       <c r="O193"/>
     </row>
@@ -6293,11 +6301,11 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
-      <c r="I194" s="48"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="31"/>
-      <c r="L194" s="54"/>
-      <c r="M194" s="54"/>
+      <c r="I194" s="67"/>
+      <c r="J194" s="67"/>
+      <c r="K194" s="46"/>
+      <c r="L194" s="65"/>
+      <c r="M194" s="65"/>
       <c r="N194"/>
       <c r="O194"/>
     </row>
@@ -6319,7 +6327,7 @@
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B196" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I196"/>
       <c r="J196"/>
@@ -6330,21 +6338,21 @@
       <c r="O196"/>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="39"/>
+      <c r="C197" s="48"/>
       <c r="D197" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="40" t="s">
+      <c r="E197" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F197" s="40"/>
-      <c r="G197" s="43" t="s">
+      <c r="F197" s="34"/>
+      <c r="G197" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="H197" s="43"/>
+      <c r="H197" s="31"/>
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
@@ -6361,10 +6369,10 @@
         <v>11</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="45"/>
+      <c r="E198" s="46"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="33"/>
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
@@ -6375,22 +6383,22 @@
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B199" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C199" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E199" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="F199" s="47"/>
-      <c r="G199" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="H199" s="31"/>
+        <v>245</v>
+      </c>
+      <c r="E199" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="F199" s="53"/>
+      <c r="G199" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="H199" s="46"/>
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
@@ -6399,14 +6407,14 @@
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G200" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="H200" s="48"/>
+      <c r="G200" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H200" s="67"/>
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
@@ -6416,8 +6424,8 @@
       <c r="O200"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G201" s="48"/>
-      <c r="H201" s="48"/>
+      <c r="G201" s="67"/>
+      <c r="H201" s="67"/>
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
@@ -6442,7 +6450,7 @@
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.15">
@@ -6463,7 +6471,7 @@
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B204" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G204"/>
       <c r="H204"/>
@@ -6476,17 +6484,17 @@
       <c r="O204"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B205" s="39" t="s">
+      <c r="B205" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="39"/>
+      <c r="C205" s="48"/>
       <c r="D205" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E205" s="40" t="s">
+      <c r="E205" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F205" s="40"/>
+      <c r="F205" s="34"/>
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -6505,8 +6513,8 @@
         <v>11</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="44"/>
-      <c r="F206" s="45"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="33"/>
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -6525,12 +6533,12 @@
         <v>118</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E207" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="F207" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="E207" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F207" s="53"/>
       <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -6543,21 +6551,21 @@
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B209" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B210" s="39" t="s">
+      <c r="B210" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="39"/>
+      <c r="C210" s="48"/>
       <c r="D210" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="40" t="s">
+      <c r="E210" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="40"/>
+      <c r="F210" s="34"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B211" s="3" t="s">
@@ -6567,8 +6575,8 @@
         <v>11</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="45"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="33"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B212" s="25" t="s">
@@ -6578,12 +6586,12 @@
         <v>118</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E212" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F212" s="47"/>
+        <v>249</v>
+      </c>
+      <c r="E212" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="F212" s="53"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
@@ -6591,17 +6599,17 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="39"/>
+      <c r="C215" s="48"/>
       <c r="D215" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E215" s="40" t="s">
+      <c r="E215" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F215" s="40"/>
+      <c r="F215" s="34"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B216" s="3" t="s">
@@ -6611,8 +6619,8 @@
         <v>11</v>
       </c>
       <c r="D216" s="3"/>
-      <c r="E216" s="44"/>
-      <c r="F216" s="45"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="33"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B217" s="25" t="s">
@@ -6624,36 +6632,36 @@
       <c r="D217" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="F217" s="47"/>
+      <c r="E217" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F217" s="53"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B219" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B220" s="39" t="s">
+      <c r="B220" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="39"/>
+      <c r="C220" s="48"/>
       <c r="D220" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="40" t="s">
+      <c r="E220" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F220" s="40"/>
-      <c r="G220" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="H220" s="43"/>
-      <c r="I220" s="43"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="43"/>
-      <c r="L220" s="43"/>
+      <c r="F220" s="34"/>
+      <c r="G220" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H220" s="31"/>
+      <c r="I220" s="31"/>
+      <c r="J220" s="31"/>
+      <c r="K220" s="31"/>
+      <c r="L220" s="31"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B221" s="3" t="s">
@@ -6663,47 +6671,47 @@
         <v>11</v>
       </c>
       <c r="D221" s="3"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="H221" s="31"/>
-      <c r="I221" s="31" t="s">
+      <c r="E221" s="46"/>
+      <c r="F221" s="46"/>
+      <c r="G221" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H221" s="46"/>
+      <c r="I221" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="J221" s="31"/>
-      <c r="K221" s="31" t="s">
+      <c r="J221" s="46"/>
+      <c r="K221" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="L221" s="31"/>
+      <c r="L221" s="46"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B222" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C222" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E222" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="F222" s="42"/>
-      <c r="G222" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="H222" s="31"/>
-      <c r="I222" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="J222" s="31"/>
-      <c r="K222" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="L222" s="31"/>
+      <c r="E222" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="F222" s="89"/>
+      <c r="G222" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="H222" s="46"/>
+      <c r="I222" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="J222" s="46"/>
+      <c r="K222" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="L222" s="46"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G223"/>
@@ -6711,45 +6719,199 @@
     </row>
     <row r="233" spans="16:16" x14ac:dyDescent="0.15">
       <c r="P233" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" spans="16:16" x14ac:dyDescent="0.15">
       <c r="P236" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I221:J221"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="G105:J106"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="I222:J222"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="G200:H201"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="I190:M190"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M194"/>
+    <mergeCell ref="I193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="I178:N178"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="N180:N181"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K149"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:K156"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H135"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="G81:M81"/>
@@ -6774,189 +6936,35 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H121"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H135"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K149"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:K156"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H142"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="I178:N178"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="N180:N181"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="I190:M190"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M194"/>
-    <mergeCell ref="I193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I221:J221"/>
-    <mergeCell ref="K221:L221"/>
-    <mergeCell ref="G105:J106"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="I222:J222"/>
-    <mergeCell ref="K222:L222"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="G200:H201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/协议说明.xlsx
+++ b/doc/协议说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="0" windowWidth="20880" windowHeight="8595"/>
+    <workbookView xWindow="7965" yWindow="0" windowWidth="20880" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1497,10 +1497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SportData（8byte）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SleepData (4byte)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,6 +1506,10 @@
   </si>
   <si>
     <t>4+N*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SportData (8byte)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1939,6 +1939,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1948,7 +1984,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,12 +2098,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,142 +2113,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3037,10 +3037,10 @@
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212481</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>534865</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3050,7 +3050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5942135" y="31820827"/>
-          <a:ext cx="454269" cy="747346"/>
+          <a:ext cx="153865" cy="740019"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3501,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P192" sqref="P192"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3513,16 +3513,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
       <c r="N2" s="30" t="s">
         <v>316</v>
       </c>
@@ -3576,37 +3576,37 @@
       <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="33"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -3615,18 +3615,18 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3634,10 +3634,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="33"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -3662,15 +3662,15 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="H9" s="46" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="31"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
@@ -3684,10 +3684,10 @@
       <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
@@ -3706,18 +3706,18 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="M12" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="N12" s="45"/>
+      <c r="N12" s="81"/>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3739,10 +3739,10 @@
       <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="N13" s="45"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3764,10 +3764,10 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="N14" s="45"/>
+      <c r="N14" s="81"/>
       <c r="O14" s="7" t="s">
         <v>60</v>
       </c>
@@ -3777,10 +3777,10 @@
       <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="N15" s="45"/>
+      <c r="N15" s="81"/>
       <c r="O15" s="7" t="s">
         <v>57</v>
       </c>
@@ -3790,10 +3790,10 @@
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
@@ -3803,10 +3803,10 @@
       <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="N17" s="45"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
@@ -3818,10 +3818,10 @@
       <c r="L18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="N18" s="45"/>
+      <c r="N18" s="81"/>
       <c r="O18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3837,10 +3837,10 @@
       <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="45"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3856,10 +3856,10 @@
       <c r="L20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="N20" s="45"/>
+      <c r="N20" s="81"/>
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3887,10 +3887,10 @@
       <c r="L22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="43"/>
+      <c r="N22" s="88"/>
       <c r="O22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3924,26 +3924,26 @@
       <c r="L23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="43"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="P24" s="11"/>
@@ -3955,25 +3955,25 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32" t="s">
+      <c r="G25" s="45"/>
+      <c r="H25" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="33"/>
+      <c r="I25" s="45"/>
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="35" t="s">
+      <c r="M25" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="36"/>
+      <c r="N25" s="83"/>
       <c r="O25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3986,10 +3986,10 @@
       <c r="L26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="36"/>
+      <c r="N26" s="83"/>
       <c r="O26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3999,31 +3999,31 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="N27" s="36"/>
+      <c r="N27" s="83"/>
       <c r="O27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D28" s="32">
+      <c r="D28" s="44">
         <v>0</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="H28" s="32" t="s">
+      <c r="E28" s="45"/>
+      <c r="H28" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="45"/>
       <c r="L28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="36"/>
+      <c r="N28" s="83"/>
       <c r="O28" s="17" t="s">
         <v>57</v>
       </c>
@@ -4033,10 +4033,10 @@
       <c r="L29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="35" t="s">
+      <c r="M29" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="36"/>
+      <c r="N29" s="83"/>
       <c r="O29" s="17" t="s">
         <v>58</v>
       </c>
@@ -4052,10 +4052,10 @@
       <c r="L30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="35" t="s">
+      <c r="M30" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="N30" s="36"/>
+      <c r="N30" s="83"/>
       <c r="O30" s="17" t="s">
         <v>58</v>
       </c>
@@ -4074,17 +4074,17 @@
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="44">
         <v>0</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="45"/>
       <c r="L31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="36"/>
+      <c r="N31" s="83"/>
       <c r="O31" s="17" t="s">
         <v>57</v>
       </c>
@@ -4106,10 +4106,10 @@
       <c r="L32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="M32" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="36"/>
+      <c r="N32" s="83"/>
       <c r="O32" s="17" t="s">
         <v>58</v>
       </c>
@@ -4138,13 +4138,13 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="19"/>
@@ -4154,35 +4154,35 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -4291,32 +4291,32 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
@@ -4436,18 +4436,18 @@
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71"/>
@@ -4457,13 +4457,13 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="87" t="s">
+      <c r="J71" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
@@ -4475,26 +4475,26 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="48"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="49" t="s">
+      <c r="F73" s="40"/>
+      <c r="G73" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="51"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="58"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
@@ -4504,12 +4504,12 @@
         <v>11</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="32" t="s">
+      <c r="E74" s="44"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="33"/>
+      <c r="H74" s="45"/>
       <c r="I74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4536,14 +4536,14 @@
       <c r="D75" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="32" t="s">
+      <c r="F75" s="47"/>
+      <c r="G75" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="33"/>
+      <c r="H75" s="45"/>
       <c r="I75" s="3" t="s">
         <v>123</v>
       </c>
@@ -4566,23 +4566,23 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="58" t="s">
+      <c r="G76" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="59"/>
-      <c r="I76" s="55" t="s">
+      <c r="H76" s="72"/>
+      <c r="I76" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="55" t="s">
+      <c r="J76" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K76" s="55" t="s">
+      <c r="K76" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="L76" s="55" t="s">
+      <c r="L76" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="M76" s="55" t="s">
+      <c r="M76" s="62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4592,13 +4592,13 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B78"/>
@@ -4606,13 +4606,13 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79"/>
@@ -4641,26 +4641,26 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="48"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="49" t="s">
+      <c r="F81" s="40"/>
+      <c r="G81" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="51"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="58"/>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
@@ -4670,20 +4670,20 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="46" t="s">
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46" t="s">
+      <c r="H82" s="31"/>
+      <c r="I82" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46" t="s">
+      <c r="J82" s="31"/>
+      <c r="K82" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="L82" s="46"/>
+      <c r="L82" s="31"/>
       <c r="M82" s="8" t="s">
         <v>152</v>
       </c>
@@ -4698,22 +4698,22 @@
       <c r="D83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="F83" s="33"/>
-      <c r="G83" s="46" t="s">
+      <c r="F83" s="45"/>
+      <c r="G83" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46" t="s">
+      <c r="H83" s="31"/>
+      <c r="I83" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46" t="s">
+      <c r="J83" s="31"/>
+      <c r="K83" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="L83" s="46"/>
+      <c r="L83" s="31"/>
       <c r="M83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4748,17 +4748,17 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="46" t="s">
+      <c r="G85" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -4776,10 +4776,10 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="32" t="s">
+      <c r="G86" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="33"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="3" t="s">
         <v>15</v>
       </c>
@@ -4815,10 +4815,10 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="32" t="s">
+      <c r="G87" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="33"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="3" t="s">
         <v>123</v>
       </c>
@@ -4854,27 +4854,27 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="58" t="s">
+      <c r="G88" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="59"/>
-      <c r="I88" s="55" t="s">
+      <c r="H88" s="72"/>
+      <c r="I88" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="55" t="s">
+      <c r="J88" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="55" t="s">
+      <c r="K88" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="L88" s="55" t="s">
+      <c r="L88" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="55" t="s">
+      <c r="M88" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="N88" s="46"/>
-      <c r="O88" s="64" t="s">
+      <c r="N88" s="31"/>
+      <c r="O88" s="70" t="s">
         <v>186</v>
       </c>
       <c r="R88"/>
@@ -4891,15 +4891,15 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="64"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="70"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -4914,15 +4914,15 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="57"/>
-      <c r="M90" s="57"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="64"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="70"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E91"/>
@@ -4952,17 +4952,17 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="48"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="34" t="s">
+      <c r="E93" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="34"/>
+      <c r="F93" s="40"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4980,8 +4980,8 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="33"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="45"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -5001,10 +5001,10 @@
       <c r="D95" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="52" t="s">
+      <c r="E95" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="F95" s="53"/>
+      <c r="F95" s="47"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -5020,17 +5020,17 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="48"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="34"/>
+      <c r="F98" s="40"/>
       <c r="P98" s="29" t="s">
         <v>315</v>
       </c>
@@ -5043,8 +5043,8 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="33"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B100" s="25" t="s">
@@ -5056,10 +5056,10 @@
       <c r="D100" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="F100" s="33"/>
+      <c r="F100" s="45"/>
       <c r="H100" s="2" t="s">
         <v>150</v>
       </c>
@@ -5075,23 +5075,23 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="48"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="34"/>
-      <c r="G104" s="31" t="s">
+      <c r="F104" s="40"/>
+      <c r="G104" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -5104,14 +5104,14 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="81" t="s">
+      <c r="E105" s="44"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="82"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="34"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -5126,14 +5126,14 @@
       <c r="D106" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="52" t="s">
+      <c r="E106" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="F106" s="53"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="86"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="37"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -5150,24 +5150,24 @@
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B110" s="48" t="s">
+      <c r="B110" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="48"/>
+      <c r="C110" s="39"/>
       <c r="D110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="34"/>
-      <c r="G110" s="31" t="s">
+      <c r="F110" s="40"/>
+      <c r="G110" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
@@ -5177,8 +5177,8 @@
         <v>11</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="66"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
@@ -5205,10 +5205,10 @@
       <c r="D112" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="52" t="s">
+      <c r="E112" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="F112" s="68"/>
+      <c r="F112" s="69"/>
       <c r="G112" s="3" t="s">
         <v>159</v>
       </c>
@@ -5226,26 +5226,26 @@
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G113" s="54" t="s">
+      <c r="G113" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="H113" s="54" t="s">
+      <c r="H113" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="I113" s="46" t="s">
+      <c r="I113" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="J113" s="46" t="s">
+      <c r="J113" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="K113" s="46"/>
+      <c r="K113" s="31"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
@@ -5253,21 +5253,21 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="48" t="s">
+      <c r="B117" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="48"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E117" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="34"/>
-      <c r="G117" s="31" t="s">
+      <c r="F117" s="40"/>
+      <c r="G117" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H117" s="31"/>
+      <c r="H117" s="43"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -5280,10 +5280,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="46"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="33"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="45"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="25" t="s">
@@ -5295,24 +5295,24 @@
       <c r="D119" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E119" s="52" t="s">
+      <c r="E119" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="F119" s="53"/>
-      <c r="G119" s="46" t="s">
+      <c r="F119" s="47"/>
+      <c r="G119" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="H119" s="46"/>
+      <c r="H119" s="31"/>
     </row>
     <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="67" t="s">
+      <c r="G120" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="H120" s="67"/>
+      <c r="H120" s="48"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
@@ -5320,26 +5320,26 @@
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="48" t="s">
+      <c r="B124" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="48"/>
+      <c r="C124" s="39"/>
       <c r="D124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="34" t="s">
+      <c r="E124" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="34"/>
-      <c r="G124" s="31" t="s">
+      <c r="F124" s="40"/>
+      <c r="G124" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="31"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
@@ -5349,8 +5349,8 @@
         <v>11</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="66"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="49"/>
       <c r="G125" s="3" t="s">
         <v>167</v>
       </c>
@@ -5383,10 +5383,10 @@
       <c r="D126" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E126" s="52" t="s">
+      <c r="E126" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="F126" s="68"/>
+      <c r="F126" s="69"/>
       <c r="G126" s="3" t="s">
         <v>175</v>
       </c>
@@ -5410,34 +5410,34 @@
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G127" s="54"/>
-      <c r="H127" s="54" t="s">
+      <c r="G127" s="60"/>
+      <c r="H127" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="I127" s="46" t="s">
+      <c r="I127" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="J127" s="46" t="s">
+      <c r="J127" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="K127" s="67" t="s">
+      <c r="K127" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="L127" s="67" t="s">
+      <c r="L127" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="M127" s="69" t="s">
+      <c r="M127" s="67" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G128" s="65"/>
-      <c r="H128" s="65"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="46"/>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="70"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="68"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
@@ -5445,21 +5445,21 @@
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B131" s="48" t="s">
+      <c r="B131" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="48"/>
+      <c r="C131" s="39"/>
       <c r="D131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="34" t="s">
+      <c r="E131" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="34"/>
-      <c r="G131" s="31" t="s">
+      <c r="F131" s="40"/>
+      <c r="G131" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H131" s="31"/>
+      <c r="H131" s="43"/>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
@@ -5469,10 +5469,10 @@
         <v>11</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="33"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="45"/>
       <c r="P132" s="29" t="s">
         <v>315</v>
       </c>
@@ -5487,24 +5487,24 @@
       <c r="D133" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E133" s="52" t="s">
+      <c r="E133" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="F133" s="53"/>
-      <c r="G133" s="46" t="s">
+      <c r="F133" s="47"/>
+      <c r="G133" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="H133" s="46"/>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G134" s="67" t="s">
+      <c r="G134" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="H134" s="67"/>
+      <c r="H134" s="48"/>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
       <c r="P135" s="29" t="s">
         <v>313</v>
       </c>
@@ -5515,21 +5515,21 @@
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B138" s="48" t="s">
+      <c r="B138" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="48"/>
+      <c r="C138" s="39"/>
       <c r="D138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="34" t="s">
+      <c r="E138" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="34"/>
-      <c r="G138" s="31" t="s">
+      <c r="F138" s="40"/>
+      <c r="G138" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H138" s="31"/>
+      <c r="H138" s="43"/>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B139" s="3" t="s">
@@ -5539,10 +5539,10 @@
         <v>11</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="46"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="33"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="45"/>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B140" s="25" t="s">
@@ -5554,24 +5554,24 @@
       <c r="D140" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E140" s="52" t="s">
+      <c r="E140" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="F140" s="53"/>
-      <c r="G140" s="46" t="s">
+      <c r="F140" s="47"/>
+      <c r="G140" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="H140" s="46"/>
+      <c r="H140" s="31"/>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G141" s="67" t="s">
+      <c r="G141" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="H141" s="67"/>
+      <c r="H141" s="48"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
@@ -5579,24 +5579,24 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="48"/>
+      <c r="C145" s="39"/>
       <c r="D145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="34" t="s">
+      <c r="E145" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="34"/>
-      <c r="G145" s="31" t="s">
+      <c r="F145" s="40"/>
+      <c r="G145" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="H145" s="31"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="31"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
+      <c r="K145" s="43"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
@@ -5606,17 +5606,17 @@
         <v>11</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="46"/>
-      <c r="F146" s="46"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
       <c r="G146" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H146" s="46" t="s">
+      <c r="H146" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I146" s="46"/>
-      <c r="J146" s="46"/>
-      <c r="K146" s="46"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B147" s="25" t="s">
@@ -5628,35 +5628,35 @@
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="71" t="s">
+      <c r="E147" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="F147" s="46"/>
+      <c r="F147" s="31"/>
       <c r="G147" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H147" s="46"/>
-      <c r="I147" s="46"/>
-      <c r="J147" s="46"/>
-      <c r="K147" s="46"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="31"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G148" s="72" t="s">
+      <c r="G148" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="H148" s="72" t="s">
+      <c r="H148" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="I148" s="73"/>
-      <c r="J148" s="73"/>
-      <c r="K148" s="73"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="66"/>
+      <c r="K148" s="66"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="73"/>
-      <c r="H149" s="73"/>
-      <c r="I149" s="73"/>
-      <c r="J149" s="73"/>
-      <c r="K149" s="73"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="66"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
@@ -5664,24 +5664,24 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="48"/>
+      <c r="C152" s="39"/>
       <c r="D152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="34" t="s">
+      <c r="E152" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="34"/>
-      <c r="G152" s="31" t="s">
+      <c r="F152" s="40"/>
+      <c r="G152" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
-      <c r="K152" s="31"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B153" s="3" t="s">
@@ -5691,17 +5691,17 @@
         <v>11</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H153" s="46" t="s">
+      <c r="H153" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I153" s="46"/>
-      <c r="J153" s="46"/>
-      <c r="K153" s="46"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B154" s="25" t="s">
@@ -5713,35 +5713,35 @@
       <c r="D154" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="71" t="s">
+      <c r="E154" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="F154" s="46"/>
+      <c r="F154" s="31"/>
       <c r="G154" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H154" s="46"/>
-      <c r="I154" s="46"/>
-      <c r="J154" s="46"/>
-      <c r="K154" s="46"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G155" s="72" t="s">
+      <c r="G155" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="H155" s="72" t="s">
+      <c r="H155" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="I155" s="73"/>
-      <c r="J155" s="73"/>
-      <c r="K155" s="73"/>
+      <c r="I155" s="66"/>
+      <c r="J155" s="66"/>
+      <c r="K155" s="66"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G156" s="73"/>
-      <c r="H156" s="73"/>
-      <c r="I156" s="73"/>
-      <c r="J156" s="73"/>
-      <c r="K156" s="73"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="66"/>
+      <c r="J156" s="66"/>
+      <c r="K156" s="66"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
@@ -5749,17 +5749,17 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="48" t="s">
+      <c r="B159" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="48"/>
+      <c r="C159" s="39"/>
       <c r="D159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="34" t="s">
+      <c r="E159" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="34"/>
+      <c r="F159" s="40"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B160" s="3" t="s">
@@ -5769,8 +5769,8 @@
         <v>11</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="33"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="45"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="25" t="s">
@@ -5782,10 +5782,10 @@
       <c r="D161" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E161" s="52" t="s">
+      <c r="E161" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="F161" s="53"/>
+      <c r="F161" s="47"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163"/>
@@ -5911,26 +5911,26 @@
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B172" s="76" t="s">
+      <c r="B172" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="77"/>
+      <c r="C172" s="53"/>
       <c r="D172" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="78" t="s">
+      <c r="E172" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="79"/>
-      <c r="G172" s="49" t="s">
+      <c r="F172" s="55"/>
+      <c r="G172" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="50"/>
-      <c r="M172" s="51"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="57"/>
+      <c r="J172" s="57"/>
+      <c r="K172" s="57"/>
+      <c r="L172" s="57"/>
+      <c r="M172" s="58"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B173" s="3" t="s">
@@ -5940,20 +5940,20 @@
         <v>11</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="32" t="s">
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="H173" s="33"/>
-      <c r="I173" s="32" t="s">
+      <c r="H173" s="45"/>
+      <c r="I173" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="J173" s="33"/>
-      <c r="K173" s="32" t="s">
+      <c r="J173" s="45"/>
+      <c r="K173" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="L173" s="33"/>
+      <c r="L173" s="45"/>
       <c r="M173" s="8" t="s">
         <v>212</v>
       </c>
@@ -5968,43 +5968,43 @@
       <c r="D174" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="E174" s="32" t="s">
+      <c r="E174" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="F174" s="33"/>
-      <c r="G174" s="32" t="s">
+      <c r="F174" s="45"/>
+      <c r="G174" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H174" s="33"/>
-      <c r="I174" s="32" t="s">
+      <c r="H174" s="45"/>
+      <c r="I174" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J174" s="33"/>
-      <c r="K174" s="32" t="s">
+      <c r="J174" s="45"/>
+      <c r="K174" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="L174" s="33"/>
+      <c r="L174" s="45"/>
       <c r="M174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="C178" s="66"/>
-      <c r="D178" s="66"/>
-      <c r="E178" s="66"/>
-      <c r="F178" s="66"/>
-      <c r="G178" s="33"/>
-      <c r="I178" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="J178" s="46"/>
-      <c r="K178" s="46"/>
-      <c r="L178" s="46"/>
-      <c r="M178" s="46"/>
-      <c r="N178" s="46"/>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="49"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="45"/>
+      <c r="I178" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="J178" s="31"/>
+      <c r="K178" s="31"/>
+      <c r="L178" s="31"/>
+      <c r="M178" s="31"/>
+      <c r="N178" s="31"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
@@ -6063,22 +6063,22 @@
       <c r="G180" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I180" s="55" t="s">
+      <c r="I180" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="J180" s="74" t="s">
+      <c r="J180" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="K180" s="74" t="s">
+      <c r="K180" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="L180" s="74" t="s">
+      <c r="L180" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="M180" s="74" t="s">
+      <c r="M180" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="N180" s="74" t="s">
+      <c r="N180" s="50" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6097,12 +6097,12 @@
       <c r="G181" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I181" s="57"/>
-      <c r="J181" s="75"/>
-      <c r="K181" s="75"/>
-      <c r="L181" s="75"/>
-      <c r="M181" s="75"/>
-      <c r="N181" s="75"/>
+      <c r="I181" s="63"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="51"/>
+      <c r="M181" s="51"/>
+      <c r="N181" s="51"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
@@ -6110,26 +6110,26 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B184" s="76" t="s">
+      <c r="B184" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="77"/>
+      <c r="C184" s="53"/>
       <c r="D184" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="78" t="s">
+      <c r="E184" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="79"/>
-      <c r="G184" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="H184" s="50"/>
-      <c r="I184" s="50"/>
-      <c r="J184" s="50"/>
-      <c r="K184" s="50"/>
-      <c r="L184" s="50"/>
-      <c r="M184" s="51"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="H184" s="57"/>
+      <c r="I184" s="57"/>
+      <c r="J184" s="57"/>
+      <c r="K184" s="57"/>
+      <c r="L184" s="57"/>
+      <c r="M184" s="58"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
@@ -6139,20 +6139,20 @@
         <v>11</v>
       </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="32" t="s">
+      <c r="E185" s="44"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="H185" s="33"/>
-      <c r="I185" s="32" t="s">
+      <c r="H185" s="45"/>
+      <c r="I185" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="J185" s="33"/>
-      <c r="K185" s="32" t="s">
+      <c r="J185" s="45"/>
+      <c r="K185" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="L185" s="33"/>
+      <c r="L185" s="45"/>
       <c r="M185" s="8" t="s">
         <v>212</v>
       </c>
@@ -6167,42 +6167,42 @@
       <c r="D186" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E186" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="F186" s="33"/>
-      <c r="G186" s="32" t="s">
+      <c r="E186" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="F186" s="45"/>
+      <c r="G186" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="H186" s="33"/>
-      <c r="I186" s="32" t="s">
+      <c r="H186" s="45"/>
+      <c r="I186" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="J186" s="33"/>
-      <c r="K186" s="32" t="s">
+      <c r="J186" s="45"/>
+      <c r="K186" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="L186" s="33"/>
+      <c r="L186" s="45"/>
       <c r="M186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="C190" s="66"/>
-      <c r="D190" s="66"/>
-      <c r="E190" s="66"/>
-      <c r="F190" s="66"/>
-      <c r="G190" s="33"/>
-      <c r="I190" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="J190" s="66"/>
-      <c r="K190" s="66"/>
-      <c r="L190" s="66"/>
-      <c r="M190" s="33"/>
+      <c r="C190" s="49"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="45"/>
+      <c r="I190" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J190" s="49"/>
+      <c r="K190" s="49"/>
+      <c r="L190" s="49"/>
+      <c r="M190" s="45"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
@@ -6218,21 +6218,21 @@
       <c r="E191" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F191" s="32" t="s">
+      <c r="F191" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="G191" s="33"/>
-      <c r="I191" s="32" t="s">
+      <c r="G191" s="45"/>
+      <c r="I191" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="J191" s="33"/>
+      <c r="J191" s="45"/>
       <c r="K191" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L191" s="32" t="s">
+      <c r="L191" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="M191" s="33"/>
+      <c r="M191" s="45"/>
       <c r="N191"/>
     </row>
     <row r="192" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6248,21 +6248,21 @@
       <c r="E192" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F192" s="32" t="s">
+      <c r="F192" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="G192" s="33"/>
-      <c r="I192" s="80" t="s">
+      <c r="G192" s="45"/>
+      <c r="I192" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="J192" s="80"/>
+      <c r="J192" s="59"/>
       <c r="K192" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="L192" s="81" t="s">
+      <c r="L192" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="M192" s="82"/>
+      <c r="M192" s="34"/>
       <c r="N192"/>
       <c r="O192"/>
     </row>
@@ -6277,19 +6277,19 @@
       <c r="E193" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="F193" s="32" t="s">
+      <c r="F193" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="G193" s="33"/>
-      <c r="I193" s="67" t="s">
+      <c r="G193" s="45"/>
+      <c r="I193" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="J193" s="67"/>
-      <c r="K193" s="46"/>
-      <c r="L193" s="54" t="s">
+      <c r="J193" s="48"/>
+      <c r="K193" s="31"/>
+      <c r="L193" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="M193" s="65"/>
+      <c r="M193" s="61"/>
       <c r="N193"/>
       <c r="O193"/>
     </row>
@@ -6301,11 +6301,11 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
-      <c r="I194" s="67"/>
-      <c r="J194" s="67"/>
-      <c r="K194" s="46"/>
-      <c r="L194" s="65"/>
-      <c r="M194" s="65"/>
+      <c r="I194" s="48"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="31"/>
+      <c r="L194" s="61"/>
+      <c r="M194" s="61"/>
       <c r="N194"/>
       <c r="O194"/>
     </row>
@@ -6338,21 +6338,21 @@
       <c r="O196"/>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B197" s="48" t="s">
+      <c r="B197" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="48"/>
+      <c r="C197" s="39"/>
       <c r="D197" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="34" t="s">
+      <c r="E197" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F197" s="34"/>
-      <c r="G197" s="31" t="s">
+      <c r="F197" s="40"/>
+      <c r="G197" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H197" s="31"/>
+      <c r="H197" s="43"/>
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
@@ -6369,10 +6369,10 @@
         <v>11</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="33"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="45"/>
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
@@ -6391,14 +6391,14 @@
       <c r="D199" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E199" s="52" t="s">
+      <c r="E199" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="F199" s="53"/>
-      <c r="G199" s="46" t="s">
+      <c r="F199" s="47"/>
+      <c r="G199" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="H199" s="46"/>
+      <c r="H199" s="31"/>
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
@@ -6411,10 +6411,10 @@
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G200" s="67" t="s">
+      <c r="G200" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="H200" s="67"/>
+      <c r="H200" s="48"/>
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
@@ -6424,8 +6424,8 @@
       <c r="O200"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G201" s="67"/>
-      <c r="H201" s="67"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
@@ -6484,17 +6484,17 @@
       <c r="O204"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="48"/>
+      <c r="C205" s="39"/>
       <c r="D205" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E205" s="34" t="s">
+      <c r="E205" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F205" s="34"/>
+      <c r="F205" s="40"/>
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
@@ -6513,8 +6513,8 @@
         <v>11</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="33"/>
+      <c r="E206" s="44"/>
+      <c r="F206" s="45"/>
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206"/>
@@ -6535,10 +6535,10 @@
       <c r="D207" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E207" s="52" t="s">
+      <c r="E207" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="F207" s="53"/>
+      <c r="F207" s="47"/>
       <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -6555,17 +6555,17 @@
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B210" s="48" t="s">
+      <c r="B210" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="48"/>
+      <c r="C210" s="39"/>
       <c r="D210" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="34" t="s">
+      <c r="E210" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="34"/>
+      <c r="F210" s="40"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B211" s="3" t="s">
@@ -6575,8 +6575,8 @@
         <v>11</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="33"/>
+      <c r="E211" s="44"/>
+      <c r="F211" s="45"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B212" s="25" t="s">
@@ -6588,10 +6588,10 @@
       <c r="D212" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E212" s="52" t="s">
+      <c r="E212" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="F212" s="53"/>
+      <c r="F212" s="47"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
@@ -6599,17 +6599,17 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="48" t="s">
+      <c r="B215" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="48"/>
+      <c r="C215" s="39"/>
       <c r="D215" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E215" s="34" t="s">
+      <c r="E215" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F215" s="34"/>
+      <c r="F215" s="40"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B216" s="3" t="s">
@@ -6619,8 +6619,8 @@
         <v>11</v>
       </c>
       <c r="D216" s="3"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="33"/>
+      <c r="E216" s="44"/>
+      <c r="F216" s="45"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B217" s="25" t="s">
@@ -6632,10 +6632,10 @@
       <c r="D217" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="52" t="s">
+      <c r="E217" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="F217" s="53"/>
+      <c r="F217" s="47"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B219" s="2" t="s">
@@ -6643,25 +6643,25 @@
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B220" s="48" t="s">
+      <c r="B220" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="48"/>
+      <c r="C220" s="39"/>
       <c r="D220" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="34" t="s">
+      <c r="E220" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F220" s="34"/>
-      <c r="G220" s="31" t="s">
+      <c r="F220" s="40"/>
+      <c r="G220" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="H220" s="31"/>
-      <c r="I220" s="31"/>
-      <c r="J220" s="31"/>
-      <c r="K220" s="31"/>
-      <c r="L220" s="31"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B221" s="3" t="s">
@@ -6671,20 +6671,20 @@
         <v>11</v>
       </c>
       <c r="D221" s="3"/>
-      <c r="E221" s="46"/>
-      <c r="F221" s="46"/>
-      <c r="G221" s="46" t="s">
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="H221" s="46"/>
-      <c r="I221" s="46" t="s">
+      <c r="H221" s="31"/>
+      <c r="I221" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J221" s="46"/>
-      <c r="K221" s="46" t="s">
+      <c r="J221" s="31"/>
+      <c r="K221" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="L221" s="46"/>
+      <c r="L221" s="31"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B222" s="25" t="s">
@@ -6696,22 +6696,22 @@
       <c r="D222" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E222" s="88" t="s">
+      <c r="E222" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="F222" s="89"/>
-      <c r="G222" s="46" t="s">
+      <c r="F222" s="42"/>
+      <c r="G222" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="H222" s="46"/>
-      <c r="I222" s="46" t="s">
+      <c r="H222" s="31"/>
+      <c r="I222" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="J222" s="46"/>
-      <c r="K222" s="46" t="s">
+      <c r="J222" s="31"/>
+      <c r="K222" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="L222" s="46"/>
+      <c r="L222" s="31"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G223"/>
@@ -6729,6 +6729,218 @@
     </row>
   </sheetData>
   <mergeCells count="236">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B39:L40"/>
+    <mergeCell ref="B53:L54"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H135"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="N180:N181"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K149"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:K156"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="I178:N178"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:M172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="I190:M190"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M194"/>
+    <mergeCell ref="I193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
     <mergeCell ref="G221:H221"/>
     <mergeCell ref="I221:J221"/>
     <mergeCell ref="K221:L221"/>
@@ -6753,218 +6965,6 @@
     <mergeCell ref="E205:F205"/>
     <mergeCell ref="E206:F206"/>
     <mergeCell ref="E207:F207"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="I190:M190"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M194"/>
-    <mergeCell ref="I193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="I178:N178"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:M172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="N180:N181"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K149"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:K156"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H142"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H135"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H121"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B39:L40"/>
-    <mergeCell ref="B53:L54"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/协议说明.xlsx
+++ b/doc/协议说明.xlsx
@@ -5,31 +5,32 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\Android\L58Tool\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AndroidProject\Stutio\L58Tool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="0" windowWidth="20880" windowHeight="8595"/>
+    <workbookView xWindow="10980" yWindow="0" windowWidth="20880" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_12_24小时制">Sheet1!$B$137</definedName>
-    <definedName name="当日数据返回">Sheet1!$B$219</definedName>
+    <definedName name="当日数据返回">Sheet1!$B$243</definedName>
     <definedName name="防丢设置">Sheet1!$B$116</definedName>
     <definedName name="计步目标设定">Sheet1!$B$103</definedName>
     <definedName name="久坐设置">Sheet1!$B$123</definedName>
     <definedName name="来电提醒">Sheet1!$B$144</definedName>
     <definedName name="闹钟列表返回">Sheet1!$B$97</definedName>
     <definedName name="闹钟设置">Sheet1!$B$80</definedName>
-    <definedName name="请求当日数据">Sheet1!$B$214</definedName>
+    <definedName name="请求当日数据">Sheet1!$B$238</definedName>
     <definedName name="请求闹钟列表">Sheet1!$B$92</definedName>
     <definedName name="请求运动数据">Sheet1!$B$158</definedName>
     <definedName name="时间设置">Sheet1!$B$72</definedName>
-    <definedName name="数据实时同步设置">Sheet1!$B$196</definedName>
-    <definedName name="数据同步结束">Sheet1!$B$209</definedName>
-    <definedName name="数据同步开始">Sheet1!$B$204</definedName>
+    <definedName name="数据实时同步设置">Sheet1!$B$217</definedName>
+    <definedName name="数据同步结束">Sheet1!$B$230</definedName>
+    <definedName name="数据同步开始">Sheet1!$B$225</definedName>
+    <definedName name="睡眠设定返回">Sheet1!$B$204</definedName>
     <definedName name="睡眠数据返回">Sheet1!$B$183</definedName>
     <definedName name="通知提醒">Sheet1!$B$151</definedName>
     <definedName name="协议格式概览">Sheet1!$E$2</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="329">
   <si>
     <t>L1Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,10 +383,6 @@
   </si>
   <si>
     <t>左右手设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠数据返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1421,10 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据同步结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闹钟设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,6 +1503,39 @@
   </si>
   <si>
     <t>SportData (8byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠设定返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepSettingData (4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepSettingData1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepSettingData2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:进入睡眠
+1:退出睡眠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠数据返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠设定数据返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +1871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,15 +1968,186 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1963,157 +2160,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2827,7 +2877,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:rowOff>168520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2836,8 +2886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6178826" y="3652630"/>
-          <a:ext cx="621196" cy="2186609"/>
+          <a:off x="6192206" y="3671744"/>
+          <a:ext cx="622789" cy="2358314"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3233,6 +3283,108 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586155</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3978838" y="33949457"/>
+          <a:ext cx="293078" cy="665795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="diamond" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5565913" y="36344087"/>
+          <a:ext cx="99391" cy="654326"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="diamond" w="med" len="med"/>
+          <a:tailEnd type="diamond" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3499,10 +3651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA236"/>
+  <dimension ref="B2:AA270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I177" sqref="I177"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3513,18 +3665,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="N2" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O2" s="30"/>
     </row>
@@ -3576,37 +3728,37 @@
       <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="45"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="39" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="43"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -3615,18 +3767,18 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="45"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3634,10 +3786,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="45"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -3647,30 +3799,30 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="M8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="31" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="H9" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="54"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
@@ -3684,10 +3836,10 @@
       <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="81"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
@@ -3706,18 +3858,18 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="N12" s="81"/>
+      <c r="M12" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12" s="53"/>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3739,10 +3891,10 @@
       <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="N13" s="81"/>
+      <c r="M13" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="N13" s="53"/>
       <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3764,10 +3916,10 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="N14" s="81"/>
+      <c r="M14" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="N14" s="53"/>
       <c r="O14" s="7" t="s">
         <v>60</v>
       </c>
@@ -3777,10 +3929,10 @@
       <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="N15" s="81"/>
+      <c r="M15" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="N15" s="53"/>
       <c r="O15" s="7" t="s">
         <v>57</v>
       </c>
@@ -3790,10 +3942,10 @@
       <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="N16" s="81"/>
+      <c r="M16" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="N16" s="53"/>
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
@@ -3803,10 +3955,10 @@
       <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="N17" s="81"/>
+      <c r="M17" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="N17" s="53"/>
       <c r="O17" s="7" t="s">
         <v>57</v>
       </c>
@@ -3818,10 +3970,10 @@
       <c r="L18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="N18" s="81"/>
+      <c r="M18" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="N18" s="53"/>
       <c r="O18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3837,10 +3989,10 @@
       <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="80" t="s">
+      <c r="M19" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="81"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3856,10 +4008,10 @@
       <c r="L20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="N20" s="81"/>
+      <c r="M20" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="N20" s="53"/>
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3887,10 +4039,10 @@
       <c r="L22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="88"/>
+      <c r="N22" s="49"/>
       <c r="O22" s="14" t="s">
         <v>57</v>
       </c>
@@ -3924,26 +4076,26 @@
       <c r="L23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" s="88"/>
+      <c r="M23" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="49"/>
       <c r="O23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="P24" s="11"/>
@@ -3955,25 +4107,25 @@
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="44" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44" t="s">
+      <c r="G25" s="41"/>
+      <c r="H25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="45"/>
+      <c r="I25" s="41"/>
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" s="83"/>
+      <c r="M25" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="51"/>
       <c r="O25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3986,10 +4138,10 @@
       <c r="L26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" s="83"/>
+      <c r="M26" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="51"/>
       <c r="O26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3999,46 +4151,46 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="N27" s="83"/>
+      <c r="M27" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="N27" s="51"/>
       <c r="O27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D28" s="44">
+      <c r="D28" s="40">
         <v>0</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="H28" s="44" t="s">
+      <c r="E28" s="41"/>
+      <c r="H28" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="45"/>
+      <c r="I28" s="41"/>
       <c r="L28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="N28" s="83"/>
+        <v>29</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="N28" s="51"/>
       <c r="O28" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="L29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="N29" s="83"/>
+        <v>46</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="51"/>
       <c r="O29" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P29" s="11"/>
     </row>
@@ -4050,12 +4202,12 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="L30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="N30" s="83"/>
+        <v>47</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" s="51"/>
       <c r="O30" s="17" t="s">
         <v>58</v>
       </c>
@@ -4074,19 +4226,19 @@
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="40">
         <v>0</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="41"/>
       <c r="L31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="N31" s="83"/>
+        <v>48</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="N31" s="51"/>
       <c r="O31" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P31" s="11"/>
     </row>
@@ -4103,15 +4255,15 @@
       <c r="E32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="83"/>
+      <c r="L32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="51"/>
       <c r="O32" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P32" s="11"/>
     </row>
@@ -4128,23 +4280,33 @@
       <c r="E33" s="3">
         <v>0</v>
       </c>
+      <c r="L33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="I34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="19"/>
@@ -4154,35 +4316,35 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -4227,7 +4389,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
@@ -4235,10 +4397,10 @@
         <v>72</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
@@ -4254,7 +4416,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
@@ -4262,10 +4424,10 @@
         <v>72</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
@@ -4273,10 +4435,10 @@
         <v>71</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
@@ -4291,32 +4453,32 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
+      <c r="B53" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
@@ -4331,29 +4493,29 @@
         <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C58" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C59" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
@@ -4361,15 +4523,15 @@
         <v>72</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
@@ -4377,7 +4539,7 @@
         <v>71</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
@@ -4385,10 +4547,10 @@
         <v>72</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.15">
@@ -4396,32 +4558,32 @@
         <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.15">
@@ -4429,25 +4591,25 @@
         <v>71</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D70" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
+      <c r="D70" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71"/>
@@ -4457,13 +4619,13 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
+      <c r="J71" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="K71" s="95"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
@@ -4475,26 +4637,26 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="39"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="58"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="59"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
@@ -4504,60 +4666,60 @@
         <v>11</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="45"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="41"/>
       <c r="I74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="47"/>
-      <c r="G75" s="44" t="s">
+      <c r="E75" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="61"/>
+      <c r="G75" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H75" s="45"/>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.15">
@@ -4566,24 +4728,24 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="H76" s="72"/>
-      <c r="I76" s="62" t="s">
+      <c r="G76" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" s="67"/>
+      <c r="I76" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J76" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="62" t="s">
+      <c r="K76" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="L76" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" s="63" t="s">
         <v>129</v>
-      </c>
-      <c r="K76" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="L76" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="M76" s="62" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.15">
@@ -4592,13 +4754,13 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B78"/>
@@ -4606,13 +4768,13 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="65"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79"/>
@@ -4628,7 +4790,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -4641,26 +4803,26 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="39"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="57"/>
-      <c r="M81" s="58"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="59"/>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
@@ -4670,50 +4832,50 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="31" t="s">
+      <c r="E82" s="40"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31" t="s">
+      <c r="J82" s="54"/>
+      <c r="K82" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="L82" s="31"/>
+      <c r="L82" s="54"/>
       <c r="M82" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="2:27" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B83" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="F83" s="45"/>
-      <c r="G83" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" s="41"/>
+      <c r="G83" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31" t="s">
+      <c r="J83" s="54"/>
+      <c r="K83" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="L83" s="31"/>
+      <c r="L83" s="54"/>
       <c r="M83" s="1" t="s">
         <v>4</v>
       </c>
@@ -4748,17 +4910,17 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
+      <c r="G85" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -4776,30 +4938,30 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="H86" s="45"/>
+      <c r="G86" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="41"/>
       <c r="I86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="M86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N86" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N86" s="3" t="s">
+      <c r="O86" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="R86"/>
       <c r="S86"/>
@@ -4815,30 +4977,30 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="44" t="s">
+      <c r="G87" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="45"/>
-      <c r="I87" s="3" t="s">
+      <c r="J87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="L87" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="M87" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O87" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="R87"/>
       <c r="S87"/>
@@ -4854,28 +5016,28 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="72"/>
-      <c r="I88" s="62" t="s">
+      <c r="G88" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H88" s="67"/>
+      <c r="I88" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J88" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="K88" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="L88" s="62" t="s">
+      <c r="K88" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="M88" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="N88" s="31"/>
-      <c r="O88" s="70" t="s">
-        <v>186</v>
+      <c r="L88" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="M88" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="N88" s="54"/>
+      <c r="O88" s="72" t="s">
+        <v>185</v>
       </c>
       <c r="R88"/>
       <c r="S88"/>
@@ -4891,15 +5053,15 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="70"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="64"/>
+      <c r="N89" s="54"/>
+      <c r="O89" s="72"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -4914,15 +5076,15 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="54"/>
+      <c r="O90" s="72"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="E91"/>
@@ -4938,7 +5100,7 @@
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -4952,17 +5114,17 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="40"/>
+      <c r="F93" s="42"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
@@ -4980,8 +5142,8 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="45"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -4993,18 +5155,18 @@
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B95" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="F95" s="47"/>
+        <v>147</v>
+      </c>
+      <c r="E95" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95" s="61"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
@@ -5016,23 +5178,23 @@
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="39"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="40"/>
+      <c r="F98" s="42"/>
       <c r="P98" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.15">
@@ -5043,55 +5205,55 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="45"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="41"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B100" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="F100" s="45"/>
+        <v>116</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="F100" s="41"/>
       <c r="H100" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P101" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="39"/>
+      <c r="C104" s="56"/>
       <c r="D104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="40"/>
-      <c r="G104" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -5104,36 +5266,36 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="34"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+      <c r="J105" s="90"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B106" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E106" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="F106" s="47"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="37"/>
+        <v>152</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="F106" s="61"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="93"/>
+      <c r="I106" s="93"/>
+      <c r="J106" s="94"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
@@ -5146,28 +5308,28 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="39"/>
+      <c r="C110" s="56"/>
       <c r="D110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="40"/>
-      <c r="G110" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
@@ -5177,75 +5339,75 @@
         <v>11</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="49"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="74"/>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H111" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B112" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="F112" s="69"/>
+        <v>153</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" s="76"/>
       <c r="G112" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="J112" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="K112" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="G113" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="H113" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="K112" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G113" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="H113" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="I113" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="J113" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="K113" s="31"/>
+      <c r="I113" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="J113" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="K113" s="54"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
@@ -5253,21 +5415,21 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="39"/>
+      <c r="C117" s="56"/>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="40"/>
-      <c r="G117" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H117" s="43"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H117" s="39"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -5280,66 +5442,66 @@
         <v>11</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="45"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="41"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B119" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E119" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="61"/>
+      <c r="G119" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="H119" s="54"/>
+    </row>
+    <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G120" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="H119" s="31"/>
-    </row>
-    <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H120" s="48"/>
+      <c r="H120" s="75"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="39"/>
+      <c r="C124" s="56"/>
       <c r="D124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="40"/>
-      <c r="G124" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="39"/>
+      <c r="M124" s="39"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="3" t="s">
@@ -5349,117 +5511,117 @@
         <v>11</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="49"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="74"/>
       <c r="G125" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I125" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K125" s="3" t="s">
+      <c r="L125" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L125" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="M125" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B126" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E126" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="F126" s="69"/>
+        <v>191</v>
+      </c>
+      <c r="E126" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" s="76"/>
       <c r="G126" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="I126" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="J126" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="L126" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="G127" s="62"/>
+      <c r="H127" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="I127" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J127" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="K126" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G127" s="60"/>
-      <c r="H127" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="I127" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J127" s="31" t="s">
+      <c r="K127" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="K127" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="L127" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="M127" s="67" t="s">
-        <v>189</v>
+      <c r="L127" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="M127" s="77" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="68"/>
+      <c r="G128" s="73"/>
+      <c r="H128" s="73"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="54"/>
+      <c r="M128" s="78"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="39"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="40" t="s">
+      <c r="E131" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="40"/>
-      <c r="G131" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H131" s="39"/>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B132" s="3" t="s">
@@ -5469,67 +5631,67 @@
         <v>11</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="45"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="41"/>
       <c r="P132" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B133" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E133" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F133" s="47"/>
-      <c r="G133" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" s="61"/>
+      <c r="G133" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="H133" s="54"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G134" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H133" s="31"/>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G134" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="H134" s="48"/>
+      <c r="H134" s="75"/>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
       <c r="P135" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="39"/>
+      <c r="C138" s="56"/>
       <c r="D138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="40" t="s">
+      <c r="E138" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="40"/>
-      <c r="G138" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H138" s="39"/>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B139" s="3" t="s">
@@ -5539,39 +5701,39 @@
         <v>11</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="45"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="54"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="41"/>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B140" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E140" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="F140" s="47"/>
-      <c r="G140" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E140" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140" s="61"/>
+      <c r="G140" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="H140" s="54"/>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G141" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="H140" s="31"/>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G141" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="H141" s="48"/>
+      <c r="H141" s="75"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G142" s="48"/>
-      <c r="H142" s="48"/>
+      <c r="G142" s="75"/>
+      <c r="H142" s="75"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
@@ -5579,24 +5741,24 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="39"/>
+      <c r="C145" s="56"/>
       <c r="D145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="40" t="s">
+      <c r="E145" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="40"/>
-      <c r="G145" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="H145" s="43"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="43"/>
-      <c r="K145" s="43"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="39"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B146" s="3" t="s">
@@ -5606,82 +5768,82 @@
         <v>11</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="54"/>
       <c r="G146" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H146" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="31"/>
+        <v>195</v>
+      </c>
+      <c r="H146" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B147" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="F147" s="31"/>
+      <c r="E147" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="F147" s="54"/>
       <c r="G147" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H147" s="54"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G148" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G148" s="65" t="s">
+      <c r="H148" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="H148" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="I148" s="66"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="66"/>
+      <c r="I148" s="83"/>
+      <c r="J148" s="83"/>
+      <c r="K148" s="83"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="66"/>
+      <c r="G149" s="83"/>
+      <c r="H149" s="83"/>
+      <c r="I149" s="83"/>
+      <c r="J149" s="83"/>
+      <c r="K149" s="83"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="39"/>
+      <c r="C152" s="56"/>
       <c r="D152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="40" t="s">
+      <c r="E152" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="40"/>
-      <c r="G152" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
-      <c r="K152" s="43"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="39"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="39"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B153" s="3" t="s">
@@ -5691,75 +5853,75 @@
         <v>11</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="54"/>
       <c r="G153" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H153" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="31"/>
+        <v>195</v>
+      </c>
+      <c r="H153" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="I153" s="54"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B154" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="F154" s="31"/>
+      <c r="E154" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="F154" s="54"/>
       <c r="G154" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="H154" s="54"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G155" s="65" t="s">
+      <c r="G155" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="H155" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="H155" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="I155" s="66"/>
-      <c r="J155" s="66"/>
-      <c r="K155" s="66"/>
+      <c r="I155" s="83"/>
+      <c r="J155" s="83"/>
+      <c r="K155" s="83"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="66"/>
-      <c r="K156" s="66"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
+      <c r="K156" s="83"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="39"/>
+      <c r="C159" s="56"/>
       <c r="D159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="40" t="s">
+      <c r="E159" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="40"/>
+      <c r="F159" s="42"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B160" s="3" t="s">
@@ -5769,23 +5931,23 @@
         <v>11</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="45"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="41"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E161" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="F161" s="47"/>
+        <v>201</v>
+      </c>
+      <c r="E161" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F161" s="61"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163"/>
@@ -5843,7 +6005,7 @@
       <c r="L166"/>
       <c r="M166"/>
       <c r="P166" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.15">
@@ -5888,7 +6050,7 @@
       <c r="L169"/>
       <c r="M169"/>
       <c r="P169" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.15">
@@ -5907,30 +6069,30 @@
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B171" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B172" s="52" t="s">
+      <c r="B172" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="53"/>
+      <c r="C172" s="85"/>
       <c r="D172" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="54" t="s">
+      <c r="E172" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="55"/>
-      <c r="G172" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="H172" s="57"/>
-      <c r="I172" s="57"/>
-      <c r="J172" s="57"/>
-      <c r="K172" s="57"/>
-      <c r="L172" s="57"/>
-      <c r="M172" s="58"/>
+      <c r="F172" s="87"/>
+      <c r="G172" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="H172" s="58"/>
+      <c r="I172" s="58"/>
+      <c r="J172" s="58"/>
+      <c r="K172" s="58"/>
+      <c r="L172" s="58"/>
+      <c r="M172" s="59"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B173" s="3" t="s">
@@ -5940,22 +6102,22 @@
         <v>11</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="H173" s="45"/>
-      <c r="I173" s="44" t="s">
+      <c r="E173" s="40"/>
+      <c r="F173" s="41"/>
+      <c r="G173" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H173" s="41"/>
+      <c r="I173" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="J173" s="41"/>
+      <c r="K173" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="J173" s="45"/>
-      <c r="K173" s="44" t="s">
+      <c r="L173" s="41"/>
+      <c r="M173" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="L173" s="45"/>
-      <c r="M173" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="174" spans="2:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -5963,173 +6125,173 @@
         <v>28</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="E174" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="F174" s="45"/>
-      <c r="G174" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="H174" s="45"/>
-      <c r="I174" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E174" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="F174" s="41"/>
+      <c r="G174" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H174" s="41"/>
+      <c r="I174" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J174" s="41"/>
+      <c r="K174" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="J174" s="45"/>
-      <c r="K174" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="L174" s="45"/>
+      <c r="L174" s="41"/>
       <c r="M174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B178" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C178" s="49"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
-      <c r="F178" s="49"/>
-      <c r="G178" s="45"/>
-      <c r="I178" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="31"/>
-      <c r="M178" s="31"/>
-      <c r="N178" s="31"/>
+      <c r="B178" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
+      <c r="E178" s="74"/>
+      <c r="F178" s="74"/>
+      <c r="G178" s="41"/>
+      <c r="I178" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J178" s="54"/>
+      <c r="K178" s="54"/>
+      <c r="L178" s="54"/>
+      <c r="M178" s="54"/>
+      <c r="N178" s="54"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E179" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="G179" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B180" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I180" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="I180" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="J180" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K180" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="J180" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="K180" s="50" t="s">
+      <c r="L180" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="L180" s="50" t="s">
+      <c r="M180" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="N180" s="80" t="s">
         <v>229</v>
-      </c>
-      <c r="M180" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="N180" s="50" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B181" s="3"/>
       <c r="C181" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D181" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E181" s="27" t="s">
         <v>221</v>
-      </c>
-      <c r="E181" s="27" t="s">
-        <v>222</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I181" s="63"/>
-      <c r="J181" s="51"/>
-      <c r="K181" s="51"/>
-      <c r="L181" s="51"/>
-      <c r="M181" s="51"/>
-      <c r="N181" s="51"/>
+        <v>281</v>
+      </c>
+      <c r="I181" s="65"/>
+      <c r="J181" s="81"/>
+      <c r="K181" s="81"/>
+      <c r="L181" s="81"/>
+      <c r="M181" s="81"/>
+      <c r="N181" s="81"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B184" s="52" t="s">
+      <c r="B184" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="53"/>
+      <c r="C184" s="85"/>
       <c r="D184" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="54" t="s">
+      <c r="E184" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="55"/>
-      <c r="G184" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="H184" s="57"/>
-      <c r="I184" s="57"/>
-      <c r="J184" s="57"/>
-      <c r="K184" s="57"/>
-      <c r="L184" s="57"/>
-      <c r="M184" s="58"/>
+      <c r="F184" s="87"/>
+      <c r="G184" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="H184" s="58"/>
+      <c r="I184" s="58"/>
+      <c r="J184" s="58"/>
+      <c r="K184" s="58"/>
+      <c r="L184" s="58"/>
+      <c r="M184" s="59"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B185" s="3" t="s">
@@ -6139,157 +6301,157 @@
         <v>11</v>
       </c>
       <c r="D185" s="3"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="H185" s="45"/>
-      <c r="I185" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="J185" s="45"/>
-      <c r="K185" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="L185" s="45"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H185" s="41"/>
+      <c r="I185" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="J185" s="41"/>
+      <c r="K185" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L185" s="41"/>
       <c r="M185" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B186" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C186" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D186" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E186" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="F186" s="45"/>
-      <c r="G186" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H186" s="45"/>
-      <c r="I186" s="44" t="s">
+      <c r="E186" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F186" s="41"/>
+      <c r="G186" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H186" s="41"/>
+      <c r="I186" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J186" s="41"/>
+      <c r="K186" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="J186" s="45"/>
-      <c r="K186" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="L186" s="45"/>
+      <c r="L186" s="41"/>
       <c r="M186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B190" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="C190" s="49"/>
-      <c r="D190" s="49"/>
-      <c r="E190" s="49"/>
-      <c r="F190" s="49"/>
-      <c r="G190" s="45"/>
-      <c r="I190" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="J190" s="49"/>
-      <c r="K190" s="49"/>
-      <c r="L190" s="49"/>
-      <c r="M190" s="45"/>
+      <c r="B190" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" s="74"/>
+      <c r="D190" s="74"/>
+      <c r="E190" s="74"/>
+      <c r="F190" s="74"/>
+      <c r="G190" s="41"/>
+      <c r="I190" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="J190" s="74"/>
+      <c r="K190" s="74"/>
+      <c r="L190" s="74"/>
+      <c r="M190" s="41"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B191" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F191" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="G191" s="45"/>
-      <c r="I191" s="44" t="s">
+      <c r="F191" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G191" s="41"/>
+      <c r="I191" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J191" s="41"/>
+      <c r="K191" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L191" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="J191" s="45"/>
-      <c r="K191" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L191" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="M191" s="45"/>
+      <c r="M191" s="41"/>
       <c r="N191"/>
     </row>
     <row r="192" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F192" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G192" s="45"/>
-      <c r="I192" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G192" s="41"/>
+      <c r="I192" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="J192" s="88"/>
+      <c r="K192" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L192" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="J192" s="59"/>
-      <c r="K192" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="L192" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="M192" s="34"/>
+      <c r="M192" s="90"/>
       <c r="N192"/>
       <c r="O192"/>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D193" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E193" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E193" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F193" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="G193" s="45"/>
-      <c r="I193" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="J193" s="48"/>
-      <c r="K193" s="31"/>
-      <c r="L193" s="60" t="s">
+      <c r="F193" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G193" s="41"/>
+      <c r="I193" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="M193" s="61"/>
+      <c r="J193" s="75"/>
+      <c r="K193" s="54"/>
+      <c r="L193" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="M193" s="73"/>
       <c r="N193"/>
       <c r="O193"/>
     </row>
@@ -6301,11 +6463,11 @@
       <c r="F194"/>
       <c r="G194"/>
       <c r="H194"/>
-      <c r="I194" s="48"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="31"/>
-      <c r="L194" s="61"/>
-      <c r="M194" s="61"/>
+      <c r="I194" s="75"/>
+      <c r="J194" s="75"/>
+      <c r="K194" s="54"/>
+      <c r="L194" s="73"/>
+      <c r="M194" s="73"/>
       <c r="N194"/>
       <c r="O194"/>
     </row>
@@ -6326,557 +6488,759 @@
       <c r="O195"/>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B196" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I196"/>
-      <c r="J196"/>
-      <c r="K196"/>
-      <c r="L196"/>
-      <c r="M196"/>
       <c r="N196"/>
       <c r="O196"/>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B197" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" s="39"/>
-      <c r="D197" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E197" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" s="40"/>
-      <c r="G197" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H197" s="43"/>
-      <c r="I197"/>
-      <c r="J197"/>
-      <c r="K197"/>
-      <c r="L197"/>
-      <c r="M197"/>
       <c r="N197"/>
       <c r="O197"/>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B198" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="45"/>
-      <c r="I198"/>
-      <c r="J198"/>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
       <c r="N198"/>
       <c r="O198"/>
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B199" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C199" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E199" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F199" s="47"/>
-      <c r="G199" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="H199" s="31"/>
-      <c r="I199"/>
-      <c r="J199"/>
-      <c r="K199"/>
-      <c r="L199"/>
-      <c r="M199"/>
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G200" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="H200" s="48"/>
-      <c r="I200"/>
-      <c r="J200"/>
-      <c r="K200"/>
-      <c r="L200"/>
-      <c r="M200"/>
       <c r="N200"/>
       <c r="O200"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="G201" s="48"/>
-      <c r="H201" s="48"/>
-      <c r="I201"/>
-      <c r="J201"/>
-      <c r="K201"/>
-      <c r="L201"/>
-      <c r="M201"/>
       <c r="N201"/>
       <c r="O201"/>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202"/>
-      <c r="M202"/>
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
       <c r="N203"/>
       <c r="O203"/>
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B204" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
+        <v>321</v>
+      </c>
       <c r="N204"/>
       <c r="O204"/>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B205" s="39" t="s">
+      <c r="B205" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="39"/>
-      <c r="D205" s="4" t="s">
+      <c r="C205" s="85"/>
+      <c r="D205" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E205" s="40" t="s">
+      <c r="E205" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F205" s="40"/>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-      <c r="K205"/>
-      <c r="L205"/>
-      <c r="M205"/>
+      <c r="F205" s="87"/>
+      <c r="G205" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="H205" s="58"/>
+      <c r="I205" s="58"/>
+      <c r="J205" s="58"/>
+      <c r="K205" s="58"/>
+      <c r="L205" s="58"/>
+      <c r="M205" s="59"/>
       <c r="N205"/>
       <c r="O205"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B206" s="3" t="s">
+    <row r="206" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="3"/>
-      <c r="E206" s="44"/>
-      <c r="F206" s="45"/>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-      <c r="K206"/>
-      <c r="L206"/>
-      <c r="M206"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="40"/>
+      <c r="F206" s="41"/>
+      <c r="G206" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H206" s="41"/>
+      <c r="I206" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="J206" s="41"/>
+      <c r="K206" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L206" s="41"/>
+      <c r="M206" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="N206"/>
       <c r="O206"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B207" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E207" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="F207" s="47"/>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-      <c r="K207"/>
-      <c r="L207"/>
-      <c r="M207"/>
+    <row r="207" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D207" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E207" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F207" s="41"/>
+      <c r="G207" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H207" s="41"/>
+      <c r="I207" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="J207" s="41"/>
+      <c r="K207" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L207" s="41"/>
+      <c r="M207" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="N207"/>
       <c r="O207"/>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B209" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B210" s="39" t="s">
+    <row r="208" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N208"/>
+      <c r="O208"/>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N209"/>
+      <c r="O209"/>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N210"/>
+      <c r="O210"/>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B211" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C211" s="74"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
+      <c r="F211" s="74"/>
+      <c r="G211" s="41"/>
+      <c r="I211" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J211" s="74"/>
+      <c r="K211" s="74"/>
+      <c r="L211" s="74"/>
+      <c r="M211" s="41"/>
+      <c r="N211"/>
+      <c r="O211"/>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B212" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D212" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F212" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G212" s="41"/>
+      <c r="I212" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="J212" s="41"/>
+      <c r="K212" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L212" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M212" s="41"/>
+      <c r="N212"/>
+      <c r="O212"/>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B213" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D213" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F213" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G213" s="41"/>
+      <c r="I213" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="J213" s="88"/>
+      <c r="K213" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="L213" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="M213" s="90"/>
+      <c r="N213"/>
+      <c r="O213"/>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B214" s="31"/>
+      <c r="C214" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E214" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F214" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G214" s="41"/>
+      <c r="I214" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="J214" s="75"/>
+      <c r="K214" s="54"/>
+      <c r="L214" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="M214" s="73"/>
+      <c r="N214"/>
+      <c r="O214"/>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215" s="75"/>
+      <c r="J215" s="75"/>
+      <c r="K215" s="54"/>
+      <c r="L215" s="73"/>
+      <c r="M215" s="73"/>
+      <c r="N215"/>
+      <c r="O215"/>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216" s="36"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="37"/>
+      <c r="L216" s="38"/>
+      <c r="M216" s="38"/>
+      <c r="N216"/>
+      <c r="O216"/>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B217" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="N217"/>
+      <c r="O217"/>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B218" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="39"/>
-      <c r="D210" s="4" t="s">
+      <c r="C218" s="56"/>
+      <c r="D218" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F210" s="40"/>
-    </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B211" s="3" t="s">
+      <c r="E218" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F218" s="42"/>
+      <c r="G218" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H218" s="39"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
+      <c r="O218"/>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B219" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C219" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="3"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="45"/>
-    </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B212" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E212" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="F212" s="47"/>
-    </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B214" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C215" s="39"/>
-      <c r="D215" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E215" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F215" s="40"/>
-    </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B216" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="44"/>
-      <c r="F216" s="45"/>
-    </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B217" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D217" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E217" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="F217" s="47"/>
-    </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B219" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B220" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" s="39"/>
-      <c r="D220" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E220" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F220" s="40"/>
-      <c r="G220" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="H220" s="43"/>
-      <c r="I220" s="43"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="43"/>
-      <c r="L220" s="43"/>
-    </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B221" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="H221" s="31"/>
-      <c r="I221" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="J221" s="31"/>
-      <c r="K221" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="L221" s="31"/>
-    </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B222" s="25" t="s">
+      <c r="D219" s="3"/>
+      <c r="E219" s="54"/>
+      <c r="F219" s="54"/>
+      <c r="G219" s="40"/>
+      <c r="H219" s="41"/>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="N219"/>
+      <c r="O219"/>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B220" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D220" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C222" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D222" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E222" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F222" s="42"/>
-      <c r="G222" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="H222" s="31"/>
-      <c r="I222" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J222" s="31"/>
-      <c r="K222" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="L222" s="31"/>
-    </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E220" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="F220" s="61"/>
+      <c r="G220" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="H220" s="54"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
+      <c r="O220"/>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="G221" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="H221" s="75"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="G222" s="75"/>
+      <c r="H222" s="75"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
       <c r="G223"/>
       <c r="H223"/>
-    </row>
-    <row r="233" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+    </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+    </row>
+    <row r="225" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B225" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B226" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="56"/>
+      <c r="D226" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F226" s="42"/>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="40"/>
+      <c r="F227" s="41"/>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+      <c r="L227"/>
+      <c r="M227"/>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B228" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E228" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F228" s="61"/>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
+      <c r="L228"/>
+      <c r="M228"/>
+    </row>
+    <row r="230" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B230" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B231" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="56"/>
+      <c r="D231" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" s="42"/>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="40"/>
+      <c r="F232" s="41"/>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B233" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C233" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D233" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E233" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="F233" s="61"/>
       <c r="P233" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="236" spans="16:16" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P236" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B238" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B239" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="56"/>
+      <c r="D239" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F239" s="42"/>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="41"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B241" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D241" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E241" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F241" s="61"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B243" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B244" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="56"/>
+      <c r="D244" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E244" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244" s="42"/>
+      <c r="G244" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="H244" s="39"/>
+      <c r="I244" s="39"/>
+      <c r="J244" s="39"/>
+      <c r="K244" s="39"/>
+      <c r="L244" s="39"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B245" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="54"/>
+      <c r="F245" s="54"/>
+      <c r="G245" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="H245" s="54"/>
+      <c r="I245" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="J245" s="54"/>
+      <c r="K245" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="L245" s="54"/>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B246" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C246" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D246" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E246" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="F246" s="97"/>
+      <c r="G246" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="H246" s="54"/>
+      <c r="I246" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="J246" s="54"/>
+      <c r="K246" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="L246" s="54"/>
+    </row>
+    <row r="267" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P267" s="35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="270" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P270" s="35" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="236">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B39:L40"/>
-    <mergeCell ref="B53:L54"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H121"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H135"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:K154"/>
+  <mergeCells count="260">
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="I211:M211"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="I245:J245"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="G105:J106"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="G244:L244"/>
+    <mergeCell ref="I246:J246"/>
+    <mergeCell ref="K246:L246"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="G221:H222"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="G205:M205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="I214:J215"/>
+    <mergeCell ref="K214:K215"/>
+    <mergeCell ref="L214:M215"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="I191:J191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="I190:M190"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M194"/>
+    <mergeCell ref="I193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="E185:F185"/>
     <mergeCell ref="N180:N181"/>
     <mergeCell ref="E146:F146"/>
     <mergeCell ref="E147:F147"/>
@@ -6901,70 +7265,155 @@
     <mergeCell ref="E172:F172"/>
     <mergeCell ref="G172:M172"/>
     <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="I191:J191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="I190:M190"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M194"/>
-    <mergeCell ref="I193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I221:J221"/>
-    <mergeCell ref="K221:L221"/>
-    <mergeCell ref="G105:J106"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="I222:J222"/>
-    <mergeCell ref="K222:L222"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="G200:H201"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H135"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B39:L40"/>
+    <mergeCell ref="B53:L54"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6983,17 +7432,19 @@
     <hyperlink ref="M25:N25" location="请求运动数据" display="请求运动数据"/>
     <hyperlink ref="M26:N26" location="运动数据返回" display="运动数据返回"/>
     <hyperlink ref="M27:N27" location="睡眠数据返回" display="睡眠数据返回"/>
-    <hyperlink ref="M28:N28" location="数据实时同步设置" display="数据实时同步设置"/>
-    <hyperlink ref="M29:N29" location="数据同步开始" display="数据同步开始"/>
-    <hyperlink ref="M30:N30" location="数据同步结束" display="数据同步结束"/>
-    <hyperlink ref="M31:N31" location="请求当日数据" display="请求当日数据"/>
-    <hyperlink ref="M32:N32" location="当日数据返回" display="当日数据返回"/>
+    <hyperlink ref="M29:N29" location="数据实时同步设置" display="数据实时同步设置"/>
+    <hyperlink ref="M30:N30" location="数据同步开始" display="数据同步开始"/>
+    <hyperlink ref="M31:N31" location="数据同步结束" display="数据同步结束"/>
+    <hyperlink ref="M32:N32" location="请求当日数据" display="请求当日数据"/>
+    <hyperlink ref="M33:N33" location="当日数据返回" display="当日数据返回"/>
     <hyperlink ref="P65" location="协议格式概览" display="回首页"/>
     <hyperlink ref="P98" location="协议格式概览" display="回首页"/>
     <hyperlink ref="P132" location="协议格式概览" display="回首页"/>
     <hyperlink ref="P166" location="协议格式概览" display="回首页"/>
     <hyperlink ref="P199" location="协议格式概览" display="回首页"/>
     <hyperlink ref="P233" location="协议格式概览" display="回首页"/>
+    <hyperlink ref="M28:N28" location="睡眠数据返回" display="睡眠数据返回"/>
+    <hyperlink ref="P267" location="协议格式概览" display="回首页"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
